--- a/daily.xlsx
+++ b/daily.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5468" uniqueCount="1203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5468" uniqueCount="1198">
   <si>
     <t>date</t>
   </si>
@@ -3337,79 +3337,100 @@
     <t>1299.72</t>
   </si>
   <si>
-    <t>1277.61</t>
+    <t>1419.39</t>
   </si>
   <si>
     <t>1341.91</t>
   </si>
   <si>
-    <t>1388.29</t>
+    <t>1523.17</t>
   </si>
   <si>
     <t>1384.18</t>
   </si>
   <si>
-    <t>1601.29</t>
-  </si>
-  <si>
-    <t>1581.77</t>
+    <t>1472.19</t>
   </si>
   <si>
     <t>1571.26</t>
   </si>
   <si>
-    <t>1577.23</t>
+    <t>1634.87</t>
   </si>
   <si>
     <t>1586.16</t>
   </si>
   <si>
-    <t>1496.86</t>
-  </si>
-  <si>
-    <t>1576.15</t>
-  </si>
-  <si>
-    <t>1795.23</t>
-  </si>
-  <si>
-    <t>1680.74</t>
+    <t>1552.77</t>
+  </si>
+  <si>
+    <t>1626.02</t>
+  </si>
+  <si>
+    <t>1647.24</t>
+  </si>
+  <si>
+    <t>1685.69</t>
+  </si>
+  <si>
+    <t>1726.9</t>
+  </si>
+  <si>
+    <t>1697.85</t>
   </si>
   <si>
     <t>1685.27</t>
   </si>
   <si>
-    <t>1754.66</t>
+    <t>1724.92</t>
   </si>
   <si>
     <t>1743.18</t>
   </si>
   <si>
-    <t>1784.52</t>
-  </si>
-  <si>
-    <t>1841.61</t>
-  </si>
-  <si>
-    <t>1871.52</t>
+    <t>1767.7</t>
+  </si>
+  <si>
+    <t>1817.61</t>
+  </si>
+  <si>
+    <t>1941.92</t>
+  </si>
+  <si>
+    <t>1929.22</t>
+  </si>
+  <si>
+    <t>1963.88</t>
+  </si>
+  <si>
+    <t>1927.92</t>
   </si>
   <si>
     <t>1912.58</t>
   </si>
   <si>
-    <t>1951.2</t>
-  </si>
-  <si>
-    <t>1863.18</t>
+    <t>1930.07</t>
+  </si>
+  <si>
+    <t>1913.38</t>
+  </si>
+  <si>
+    <t>1877.88</t>
+  </si>
+  <si>
+    <t>1893.53</t>
   </si>
   <si>
     <t>1890.93</t>
   </si>
   <si>
-    <t>1909.55</t>
-  </si>
-  <si>
-    <t>1861.93</t>
+    <t>1949.37</t>
+  </si>
+  <si>
+    <t>1895.63</t>
+  </si>
+  <si>
+    <t>1877.19</t>
   </si>
   <si>
     <t>1837.78</t>
@@ -3421,205 +3442,169 @@
     <t>1810.28</t>
   </si>
   <si>
-    <t>1839.89</t>
-  </si>
-  <si>
-    <t>1849.09</t>
-  </si>
-  <si>
     <t>1970.64</t>
   </si>
   <si>
+    <t>1827.43</t>
+  </si>
+  <si>
     <t>1871.37</t>
   </si>
   <si>
-    <t>1711.91</t>
-  </si>
-  <si>
-    <t>1743.4</t>
-  </si>
-  <si>
-    <t>1729.88</t>
-  </si>
-  <si>
-    <t>1776.94</t>
-  </si>
-  <si>
-    <t>1814.88</t>
-  </si>
-  <si>
-    <t>1831.24</t>
-  </si>
-  <si>
-    <t>1773.15</t>
+    <t>1855.92</t>
+  </si>
+  <si>
+    <t>1793.9</t>
+  </si>
+  <si>
+    <t>1834.05</t>
   </si>
   <si>
     <t>1843.89</t>
   </si>
   <si>
-    <t>1791.8</t>
-  </si>
-  <si>
-    <t>1827.39</t>
+    <t>1809.68</t>
+  </si>
+  <si>
+    <t>1811.89</t>
+  </si>
+  <si>
+    <t>1761.09</t>
   </si>
   <si>
     <t>1806.94</t>
   </si>
   <si>
-    <t>1827.99</t>
-  </si>
-  <si>
     <t>1729.51</t>
   </si>
   <si>
     <t>1818.12</t>
   </si>
   <si>
+    <t>1805.43</t>
+  </si>
+  <si>
     <t>1726.48</t>
   </si>
   <si>
-    <t>1805.43</t>
-  </si>
-  <si>
-    <t>1753.4</t>
-  </si>
-  <si>
-    <t>1792.96</t>
-  </si>
-  <si>
-    <t>1849.22</t>
-  </si>
-  <si>
-    <t>1831.82</t>
-  </si>
-  <si>
-    <t>1768.17</t>
-  </si>
-  <si>
-    <t>1804.83</t>
-  </si>
-  <si>
-    <t>1799.18</t>
-  </si>
-  <si>
-    <t>1790.85</t>
+    <t>1827.49</t>
+  </si>
+  <si>
+    <t>1809.49</t>
+  </si>
+  <si>
+    <t>1804.57</t>
+  </si>
+  <si>
+    <t>1733.88</t>
+  </si>
+  <si>
+    <t>1807.66</t>
+  </si>
+  <si>
+    <t>1792.78</t>
+  </si>
+  <si>
+    <t>1871.33</t>
+  </si>
+  <si>
+    <t>1770.57</t>
   </si>
   <si>
     <t>1828.94</t>
   </si>
   <si>
+    <t>1801.24</t>
+  </si>
+  <si>
     <t>1821.46</t>
   </si>
   <si>
-    <t>1840.44</t>
-  </si>
-  <si>
-    <t>1797.1</t>
-  </si>
-  <si>
-    <t>1806.78</t>
-  </si>
-  <si>
-    <t>1832.9</t>
+    <t>1898.37</t>
   </si>
   <si>
     <t>1858.53</t>
   </si>
   <si>
-    <t>1945.02</t>
-  </si>
-  <si>
-    <t>1888.98</t>
-  </si>
-  <si>
-    <t>1953.63</t>
-  </si>
-  <si>
-    <t>1966.53</t>
+    <t>1820.46</t>
+  </si>
+  <si>
+    <t>1764.74</t>
   </si>
   <si>
     <t>1897.92</t>
   </si>
   <si>
-    <t>1931.44</t>
-  </si>
-  <si>
     <t>1862.83</t>
   </si>
   <si>
-    <t>1837.47</t>
-  </si>
-  <si>
-    <t>1820.1</t>
-  </si>
-  <si>
-    <t>1868.58</t>
-  </si>
-  <si>
-    <t>1856.68</t>
-  </si>
-  <si>
-    <t>1822.61</t>
-  </si>
-  <si>
-    <t>1817.85</t>
-  </si>
-  <si>
-    <t>1791.16</t>
+    <t>1881.2</t>
+  </si>
+  <si>
+    <t>1838.35</t>
+  </si>
+  <si>
+    <t>1821.86</t>
+  </si>
+  <si>
+    <t>1622.45</t>
+  </si>
+  <si>
+    <t>1711.05</t>
   </si>
   <si>
     <t>1724.27</t>
   </si>
   <si>
-    <t>1699.64</t>
-  </si>
-  <si>
-    <t>1629.05</t>
-  </si>
-  <si>
-    <t>1664.66</t>
-  </si>
-  <si>
-    <t>1920.27</t>
-  </si>
-  <si>
-    <t>1760.25</t>
+    <t>1712.54</t>
+  </si>
+  <si>
+    <t>1697.41</t>
+  </si>
+  <si>
+    <t>1664.6</t>
+  </si>
+  <si>
+    <t>1680.79</t>
+  </si>
+  <si>
+    <t>1755.46</t>
   </si>
   <si>
     <t>1768.53</t>
   </si>
   <si>
-    <t>1768.68</t>
-  </si>
-  <si>
-    <t>1792.45</t>
-  </si>
-  <si>
-    <t>1823.67</t>
-  </si>
-  <si>
-    <t>1854.63</t>
-  </si>
-  <si>
-    <t>1842.4</t>
+    <t>1832.98</t>
+  </si>
+  <si>
+    <t>1835.88</t>
   </si>
   <si>
     <t>1813.14</t>
   </si>
   <si>
-    <t>1867.09</t>
-  </si>
-  <si>
-    <t>1913.5</t>
-  </si>
-  <si>
-    <t>1940.14</t>
-  </si>
-  <si>
-    <t>1969.73</t>
-  </si>
-  <si>
-    <t>1940.72</t>
+    <t>1830.79</t>
+  </si>
+  <si>
+    <t>1988.22</t>
+  </si>
+  <si>
+    <t>2016.58</t>
+  </si>
+  <si>
+    <t>2016.59</t>
+  </si>
+  <si>
+    <t>2034.45</t>
+  </si>
+  <si>
+    <t>1939.9</t>
+  </si>
+  <si>
+    <t>1925.81</t>
+  </si>
+  <si>
+    <t>1919.37</t>
   </si>
   <si>
     <t>1957.3</t>
@@ -4228,22 +4213,22 @@
         <v>1286.57</v>
       </c>
       <c r="C10">
-        <v>1280.77</v>
+        <v>1299.72</v>
       </c>
       <c r="D10">
-        <v>1298.17</v>
+        <v>1260.27</v>
       </c>
       <c r="E10" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>1103</v>
       </c>
       <c r="G10" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="H10" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4254,10 +4239,10 @@
         <v>1277.61</v>
       </c>
       <c r="C11">
-        <v>1268.186171056331</v>
+        <v>1287.033828943669</v>
       </c>
       <c r="D11">
-        <v>1296.457657887339</v>
+        <v>1258.762342112661</v>
       </c>
       <c r="E11" t="s">
         <v>1101</v>
@@ -4280,10 +4265,10 @@
         <v>1277.66</v>
       </c>
       <c r="C12">
-        <v>1268.235802249381</v>
+        <v>1287.084197750619</v>
       </c>
       <c r="D12">
-        <v>1296.508395501239</v>
+        <v>1258.811604498762</v>
       </c>
       <c r="E12" t="s">
         <v>1101</v>
@@ -4306,10 +4291,10 @@
         <v>1274.66</v>
       </c>
       <c r="C13">
-        <v>1265.257930666371</v>
+        <v>1277.66</v>
       </c>
       <c r="D13">
-        <v>1293.464138667258</v>
+        <v>1268.66</v>
       </c>
       <c r="E13" t="s">
         <v>1101</v>
@@ -4332,10 +4317,10 @@
         <v>1273.29</v>
       </c>
       <c r="C14">
-        <v>1263.898035976797</v>
+        <v>1282.681964023203</v>
       </c>
       <c r="D14">
-        <v>1292.073928046406</v>
+        <v>1254.506071953594</v>
       </c>
       <c r="E14" t="s">
         <v>1101</v>
@@ -4358,10 +4343,10 @@
         <v>1283.34</v>
       </c>
       <c r="C15">
-        <v>1273.29</v>
+        <v>1292.806094220121</v>
       </c>
       <c r="D15">
-        <v>1303.44</v>
+        <v>1264.407811559758</v>
       </c>
       <c r="E15" t="s">
         <v>1101</v>
@@ -4384,10 +4369,10 @@
         <v>1284.78</v>
       </c>
       <c r="C16">
-        <v>1273.29</v>
+        <v>1294.256715860276</v>
       </c>
       <c r="D16">
-        <v>1307.76</v>
+        <v>1265.826568279447</v>
       </c>
       <c r="E16" t="s">
         <v>1101</v>
@@ -4410,10 +4395,10 @@
         <v>1284.98</v>
       </c>
       <c r="C17">
-        <v>1275.501808911924</v>
+        <v>1294.458191088076</v>
       </c>
       <c r="D17">
-        <v>1303.936382176151</v>
+        <v>1266.023617823849</v>
       </c>
       <c r="E17" t="s">
         <v>1101</v>
@@ -4436,10 +4421,10 @@
         <v>1279.34</v>
       </c>
       <c r="C18">
-        <v>1269.903410335866</v>
+        <v>1288.776589664134</v>
       </c>
       <c r="D18">
-        <v>1298.213179328268</v>
+        <v>1260.466820671732</v>
       </c>
       <c r="E18" t="s">
         <v>1101</v>
@@ -4462,10 +4447,10 @@
         <v>1279.87</v>
       </c>
       <c r="C19">
-        <v>1279.34</v>
+        <v>1284.98</v>
       </c>
       <c r="D19">
-        <v>1280.93</v>
+        <v>1269.65</v>
       </c>
       <c r="E19" t="s">
         <v>1101</v>
@@ -4488,10 +4473,10 @@
         <v>1288.35</v>
       </c>
       <c r="C20">
-        <v>1279.34</v>
+        <v>1297.853048676495</v>
       </c>
       <c r="D20">
-        <v>1306.37</v>
+        <v>1269.343902647011</v>
       </c>
       <c r="E20" t="s">
         <v>1101</v>
@@ -4514,10 +4499,10 @@
         <v>1305.44</v>
       </c>
       <c r="C21">
-        <v>1279.34</v>
+        <v>1315.06910689195</v>
       </c>
       <c r="D21">
-        <v>1357.64</v>
+        <v>1286.181786216101</v>
       </c>
       <c r="E21" t="s">
         <v>1101</v>
@@ -4540,10 +4525,10 @@
         <v>1324.7</v>
       </c>
       <c r="C22">
-        <v>1279.34</v>
+        <v>1334.471171329028</v>
       </c>
       <c r="D22">
-        <v>1415.42</v>
+        <v>1305.157657341945</v>
       </c>
       <c r="E22" t="s">
         <v>1101</v>
@@ -4572,16 +4557,16 @@
         <v>1416.89</v>
       </c>
       <c r="E23" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F23" t="s">
-        <v>1103</v>
+        <v>43</v>
       </c>
       <c r="G23" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="H23" t="s">
-        <v>1103</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -4748,22 +4733,22 @@
         <v>1341.91</v>
       </c>
       <c r="C30">
-        <v>1332.011885318838</v>
+        <v>1351.808114681162</v>
       </c>
       <c r="D30">
-        <v>1361.706229362324</v>
+        <v>1322.113770637676</v>
       </c>
       <c r="E30" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="F30" t="s">
-        <v>41</v>
+        <v>1103</v>
       </c>
       <c r="G30" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H30" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -4774,10 +4759,10 @@
         <v>1341.39</v>
       </c>
       <c r="C31">
-        <v>1326.66</v>
+        <v>1341.91</v>
       </c>
       <c r="D31">
-        <v>1370.85</v>
+        <v>1340.35</v>
       </c>
       <c r="E31" t="s">
         <v>1101</v>
@@ -4800,10 +4785,10 @@
         <v>1339.6</v>
       </c>
       <c r="C32">
-        <v>1329.718924199921</v>
+        <v>1349.481075800079</v>
       </c>
       <c r="D32">
-        <v>1359.362151600159</v>
+        <v>1319.837848399841</v>
       </c>
       <c r="E32" t="s">
         <v>1101</v>
@@ -4826,10 +4811,10 @@
         <v>1346.57</v>
       </c>
       <c r="C33">
-        <v>1339.6</v>
+        <v>1356.502487488887</v>
       </c>
       <c r="D33">
-        <v>1360.51</v>
+        <v>1326.705025022226</v>
       </c>
       <c r="E33" t="s">
         <v>1101</v>
@@ -4852,10 +4837,10 @@
         <v>1360.27</v>
       </c>
       <c r="C34">
-        <v>1339.6</v>
+        <v>1370.303540593143</v>
       </c>
       <c r="D34">
-        <v>1401.61</v>
+        <v>1340.202918813714</v>
       </c>
       <c r="E34" t="s">
         <v>1101</v>
@@ -4878,10 +4863,10 @@
         <v>1388.29</v>
       </c>
       <c r="C35">
-        <v>1339.6</v>
+        <v>1398.530220007832</v>
       </c>
       <c r="D35">
-        <v>1485.67</v>
+        <v>1367.809559984335</v>
       </c>
       <c r="E35" t="s">
         <v>1101</v>
@@ -4910,16 +4895,16 @@
         <v>1518.13</v>
       </c>
       <c r="E36" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F36" t="s">
-        <v>1103</v>
+        <v>81</v>
       </c>
       <c r="G36" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="H36" t="s">
-        <v>1103</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -8440,22 +8425,22 @@
         <v>1516.86</v>
       </c>
       <c r="C172">
-        <v>1477.86</v>
+        <v>1528.048570198648</v>
       </c>
       <c r="D172">
-        <v>1594.86</v>
+        <v>1494.482859602704</v>
       </c>
       <c r="E172" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="F172" t="s">
-        <v>212</v>
+        <v>1103</v>
       </c>
       <c r="G172" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H172" t="s">
-        <v>1111</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -8466,10 +8451,10 @@
         <v>1529.03</v>
       </c>
       <c r="C173">
-        <v>1477.86</v>
+        <v>1540.308337810239</v>
       </c>
       <c r="D173">
-        <v>1631.37</v>
+        <v>1506.473324379523</v>
       </c>
       <c r="E173" t="s">
         <v>1101</v>
@@ -8498,16 +8483,16 @@
         <v>1700.4</v>
       </c>
       <c r="E174" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F174" t="s">
-        <v>1103</v>
+        <v>234</v>
       </c>
       <c r="G174" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="H174" t="s">
-        <v>1103</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -8596,22 +8581,22 @@
         <v>1552.27</v>
       </c>
       <c r="C178">
-        <v>1540.820240719476</v>
+        <v>1563.719759280523</v>
       </c>
       <c r="D178">
-        <v>1575.169518561047</v>
+        <v>1529.370481438953</v>
       </c>
       <c r="E178" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="F178" t="s">
-        <v>1103</v>
+        <v>195</v>
       </c>
       <c r="G178" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="H178" t="s">
-        <v>1103</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -8628,16 +8613,16 @@
         <v>1538.730334798014</v>
       </c>
       <c r="E179" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F179" t="s">
-        <v>196</v>
+        <v>1103</v>
       </c>
       <c r="G179" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="H179" t="s">
-        <v>1112</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -8752,22 +8737,22 @@
         <v>1557.17</v>
       </c>
       <c r="C184">
-        <v>1552.4</v>
+        <v>1568.655902361608</v>
       </c>
       <c r="D184">
-        <v>1566.71</v>
+        <v>1534.198195276785</v>
       </c>
       <c r="E184" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="F184" t="s">
-        <v>195</v>
+        <v>1103</v>
       </c>
       <c r="G184" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H184" t="s">
-        <v>1113</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -8784,16 +8769,16 @@
         <v>1537.685972212687</v>
       </c>
       <c r="E185" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F185" t="s">
-        <v>196</v>
+        <v>1103</v>
       </c>
       <c r="G185" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="H185" t="s">
-        <v>1112</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -9376,22 +9361,22 @@
         <v>1619.47</v>
       </c>
       <c r="C208">
-        <v>1580.71</v>
+        <v>1631.415435821107</v>
       </c>
       <c r="D208">
-        <v>1696.99</v>
+        <v>1595.579128357787</v>
       </c>
       <c r="E208" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="F208" t="s">
-        <v>229</v>
+        <v>1103</v>
       </c>
       <c r="G208" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="H208" t="s">
-        <v>1114</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -9402,10 +9387,10 @@
         <v>1643.46</v>
       </c>
       <c r="C209">
-        <v>1580.71</v>
+        <v>1655.582389395639</v>
       </c>
       <c r="D209">
-        <v>1768.96</v>
+        <v>1619.215221208721</v>
       </c>
       <c r="E209" t="s">
         <v>1101</v>
@@ -9434,16 +9419,16 @@
         <v>1683.13916093956</v>
       </c>
       <c r="E210" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F210" t="s">
-        <v>1103</v>
+        <v>217</v>
       </c>
       <c r="G210" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="H210" t="s">
-        <v>1103</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -9454,22 +9439,22 @@
         <v>1634.87</v>
       </c>
       <c r="C211">
-        <v>1646.929028361657</v>
+        <v>1622.810971638343</v>
       </c>
       <c r="D211">
-        <v>1610.751943276686</v>
+        <v>1658.988056723314</v>
       </c>
       <c r="E211" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F211" t="s">
-        <v>220</v>
+        <v>1103</v>
       </c>
       <c r="G211" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H211" t="s">
-        <v>1115</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -9486,16 +9471,16 @@
         <v>1604.94</v>
       </c>
       <c r="E212" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="F212" t="s">
-        <v>1103</v>
+        <v>220</v>
       </c>
       <c r="G212" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="H212" t="s">
-        <v>1103</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -9896,22 +9881,22 @@
         <v>1472.19</v>
       </c>
       <c r="C228">
-        <v>1461.330921930338</v>
+        <v>1483.049078069662</v>
       </c>
       <c r="D228">
-        <v>1493.908156139324</v>
+        <v>1450.471843860676</v>
       </c>
       <c r="E228" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="F228" t="s">
-        <v>235</v>
+        <v>1103</v>
       </c>
       <c r="G228" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H228" t="s">
-        <v>1116</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -9928,16 +9913,16 @@
         <v>1546.2</v>
       </c>
       <c r="E229" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F229" t="s">
-        <v>1103</v>
+        <v>236</v>
       </c>
       <c r="G229" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="H229" t="s">
-        <v>1103</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -9948,22 +9933,22 @@
         <v>1552.77</v>
       </c>
       <c r="C230">
-        <v>1472.19</v>
+        <v>1564.223447350022</v>
       </c>
       <c r="D230">
-        <v>1713.93</v>
+        <v>1529.863105299956</v>
       </c>
       <c r="E230" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="F230" t="s">
-        <v>1103</v>
+        <v>237</v>
       </c>
       <c r="G230" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="H230" t="s">
-        <v>1103</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -9980,16 +9965,16 @@
         <v>1602.032500936928</v>
       </c>
       <c r="E231" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F231" t="s">
-        <v>242</v>
+        <v>1103</v>
       </c>
       <c r="G231" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H231" t="s">
-        <v>1117</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -10208,22 +10193,22 @@
         <v>1659.89</v>
       </c>
       <c r="C240">
-        <v>1672.133579359356</v>
+        <v>1647.646420640644</v>
       </c>
       <c r="D240">
-        <v>1635.402841281287</v>
+        <v>1684.377158718713</v>
       </c>
       <c r="E240" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F240" t="s">
-        <v>1103</v>
+        <v>247</v>
       </c>
       <c r="G240" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="H240" t="s">
-        <v>1103</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -10240,16 +10225,16 @@
         <v>1789.42</v>
       </c>
       <c r="E241" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="F241" t="s">
-        <v>311</v>
+        <v>1103</v>
       </c>
       <c r="G241" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H241" t="s">
-        <v>1118</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -10338,22 +10323,22 @@
         <v>1726.16</v>
       </c>
       <c r="C245">
-        <v>1738.892396090673</v>
+        <v>1713.427603909327</v>
       </c>
       <c r="D245">
-        <v>1700.695207818655</v>
+        <v>1751.624792181345</v>
       </c>
       <c r="E245" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F245" t="s">
-        <v>254</v>
+        <v>1103</v>
       </c>
       <c r="G245" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H245" t="s">
-        <v>1119</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -10364,10 +10349,10 @@
         <v>1715.76</v>
       </c>
       <c r="C246">
-        <v>1728.415684245106</v>
+        <v>1703.104315754894</v>
       </c>
       <c r="D246">
-        <v>1690.448631509788</v>
+        <v>1741.071368490212</v>
       </c>
       <c r="E246" t="s">
         <v>1101</v>
@@ -10390,10 +10375,10 @@
         <v>1717.25</v>
       </c>
       <c r="C247">
-        <v>1729.916674692211</v>
+        <v>1704.583325307789</v>
       </c>
       <c r="D247">
-        <v>1691.916650615577</v>
+        <v>1742.583349384423</v>
       </c>
       <c r="E247" t="s">
         <v>1101</v>
@@ -10416,10 +10401,10 @@
         <v>1680.74</v>
       </c>
       <c r="C248">
-        <v>1693.137371857439</v>
+        <v>1668.342628142561</v>
       </c>
       <c r="D248">
-        <v>1655.945256285122</v>
+        <v>1705.534743714878</v>
       </c>
       <c r="E248" t="s">
         <v>1101</v>
@@ -10442,10 +10427,10 @@
         <v>1695.28</v>
       </c>
       <c r="C249">
-        <v>1707.784620918452</v>
+        <v>1682.775379081548</v>
       </c>
       <c r="D249">
-        <v>1670.270758163095</v>
+        <v>1720.289241836904</v>
       </c>
       <c r="E249" t="s">
         <v>1101</v>
@@ -10468,10 +10453,10 @@
         <v>1686.82</v>
       </c>
       <c r="C250">
-        <v>1699.26221878254</v>
+        <v>1674.37778121746</v>
       </c>
       <c r="D250">
-        <v>1661.935562434921</v>
+        <v>1711.704437565079</v>
       </c>
       <c r="E250" t="s">
         <v>1101</v>
@@ -10494,10 +10479,10 @@
         <v>1713.76</v>
       </c>
       <c r="C251">
-        <v>1726.400931967113</v>
+        <v>1686.82</v>
       </c>
       <c r="D251">
-        <v>1688.478136065775</v>
+        <v>1767.64</v>
       </c>
       <c r="E251" t="s">
         <v>1101</v>
@@ -10520,10 +10505,10 @@
         <v>1730.17</v>
       </c>
       <c r="C252">
-        <v>1742.93197440805</v>
+        <v>1717.40802559195</v>
       </c>
       <c r="D252">
-        <v>1704.6460511839</v>
+        <v>1755.6939488161</v>
       </c>
       <c r="E252" t="s">
         <v>1101</v>
@@ -10546,10 +10531,10 @@
         <v>1726.64</v>
       </c>
       <c r="C253">
-        <v>1730.17</v>
+        <v>1686.82</v>
       </c>
       <c r="D253">
-        <v>1719.58</v>
+        <v>1806.28</v>
       </c>
       <c r="E253" t="s">
         <v>1101</v>
@@ -10572,10 +10557,10 @@
         <v>1713.48</v>
       </c>
       <c r="C254">
-        <v>1730.17</v>
+        <v>1686.82</v>
       </c>
       <c r="D254">
-        <v>1680.1</v>
+        <v>1766.8</v>
       </c>
       <c r="E254" t="s">
         <v>1101</v>
@@ -10598,10 +10583,10 @@
         <v>1708.37</v>
       </c>
       <c r="C255">
-        <v>1720.97117457792</v>
+        <v>1695.76882542208</v>
       </c>
       <c r="D255">
-        <v>1683.16765084416</v>
+        <v>1733.57234915584</v>
       </c>
       <c r="E255" t="s">
         <v>1101</v>
@@ -10630,16 +10615,16 @@
         <v>1685.758852353037</v>
       </c>
       <c r="E256" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="F256" t="s">
-        <v>1103</v>
+        <v>263</v>
       </c>
       <c r="G256" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="H256" t="s">
-        <v>1103</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -11014,22 +10999,22 @@
         <v>1747.05</v>
       </c>
       <c r="C271">
-        <v>1759.936483634315</v>
+        <v>1734.163516365685</v>
       </c>
       <c r="D271">
-        <v>1721.277032731369</v>
+        <v>1772.82296726863</v>
       </c>
       <c r="E271" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F271" t="s">
-        <v>1103</v>
+        <v>278</v>
       </c>
       <c r="G271" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="H271" t="s">
-        <v>1103</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -11046,16 +11031,16 @@
         <v>1701.42429113294</v>
       </c>
       <c r="E272" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="F272" t="s">
-        <v>1103</v>
+        <v>287</v>
       </c>
       <c r="G272" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="H272" t="s">
-        <v>1103</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -11248,22 +11233,22 @@
         <v>1727.68</v>
       </c>
       <c r="C280">
-        <v>1739.45</v>
+        <v>1709.07</v>
       </c>
       <c r="D280">
-        <v>1704.14</v>
+        <v>1764.9</v>
       </c>
       <c r="E280" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F280" t="s">
-        <v>1103</v>
+        <v>287</v>
       </c>
       <c r="G280" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="H280" t="s">
-        <v>1103</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -11280,16 +11265,16 @@
         <v>1722.897155191348</v>
       </c>
       <c r="E281" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="F281" t="s">
-        <v>289</v>
+        <v>1103</v>
       </c>
       <c r="G281" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="H281" t="s">
-        <v>1120</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -11315,7 +11300,7 @@
         <v>1104</v>
       </c>
       <c r="H282" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -11404,22 +11389,22 @@
         <v>1738.39</v>
       </c>
       <c r="C286">
-        <v>1751.212606270603</v>
+        <v>1725.567393729397</v>
       </c>
       <c r="D286">
-        <v>1712.744787458794</v>
+        <v>1764.035212541207</v>
       </c>
       <c r="E286" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F286" t="s">
-        <v>1103</v>
+        <v>295</v>
       </c>
       <c r="G286" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="H286" t="s">
-        <v>1103</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -11430,22 +11415,22 @@
         <v>1727.06</v>
       </c>
       <c r="C287">
-        <v>1714.32096538423</v>
+        <v>1739.79903461577</v>
       </c>
       <c r="D287">
-        <v>1752.538069231539</v>
+        <v>1701.581930768461</v>
       </c>
       <c r="E287" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="F287" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G287" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="H287" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -11462,16 +11447,16 @@
         <v>1755.62291615664</v>
       </c>
       <c r="E288" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F288" t="s">
-        <v>1103</v>
+        <v>301</v>
       </c>
       <c r="G288" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="H288" t="s">
-        <v>1103</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -11482,22 +11467,22 @@
         <v>1724.92</v>
       </c>
       <c r="C289">
-        <v>1737.643249678317</v>
+        <v>1712.196750321683</v>
       </c>
       <c r="D289">
-        <v>1699.473500643367</v>
+        <v>1750.366499356634</v>
       </c>
       <c r="E289" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F289" t="s">
-        <v>299</v>
+        <v>1103</v>
       </c>
       <c r="G289" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="H289" t="s">
-        <v>1122</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -11508,10 +11493,10 @@
         <v>1726.28</v>
       </c>
       <c r="C290">
-        <v>1730.1</v>
+        <v>1724.92</v>
       </c>
       <c r="D290">
-        <v>1718.64</v>
+        <v>1729</v>
       </c>
       <c r="E290" t="s">
         <v>1101</v>
@@ -11534,10 +11519,10 @@
         <v>1726.51</v>
       </c>
       <c r="C291">
-        <v>1739.244977739321</v>
+        <v>1713.775022260678</v>
       </c>
       <c r="D291">
-        <v>1701.040044521357</v>
+        <v>1751.979955478643</v>
       </c>
       <c r="E291" t="s">
         <v>1101</v>
@@ -11560,10 +11545,10 @@
         <v>1722.4</v>
       </c>
       <c r="C292">
-        <v>1735.104661808045</v>
+        <v>1709.695338191955</v>
       </c>
       <c r="D292">
-        <v>1696.99067638391</v>
+        <v>1747.80932361609</v>
       </c>
       <c r="E292" t="s">
         <v>1101</v>
@@ -11586,10 +11571,10 @@
         <v>1743.18</v>
       </c>
       <c r="C293">
-        <v>1756.037937976398</v>
+        <v>1722.4</v>
       </c>
       <c r="D293">
-        <v>1717.464124047204</v>
+        <v>1784.74</v>
       </c>
       <c r="E293" t="s">
         <v>1101</v>
@@ -11612,10 +11597,10 @@
         <v>1754.66</v>
       </c>
       <c r="C294">
-        <v>1767.602616052081</v>
+        <v>1722.4</v>
       </c>
       <c r="D294">
-        <v>1728.774767895839</v>
+        <v>1819.18</v>
       </c>
       <c r="E294" t="s">
         <v>1101</v>
@@ -11638,10 +11623,10 @@
         <v>1767.7</v>
       </c>
       <c r="C295">
-        <v>1780.738800904599</v>
+        <v>1754.661199095401</v>
       </c>
       <c r="D295">
-        <v>1741.622398190803</v>
+        <v>1793.777601809197</v>
       </c>
       <c r="E295" t="s">
         <v>1101</v>
@@ -11664,10 +11649,10 @@
         <v>1761.39</v>
       </c>
       <c r="C296">
-        <v>1774.382257467529</v>
+        <v>1748.397742532471</v>
       </c>
       <c r="D296">
-        <v>1735.405485064942</v>
+        <v>1787.374514935058</v>
       </c>
       <c r="E296" t="s">
         <v>1101</v>
@@ -11690,10 +11675,10 @@
         <v>1763.73</v>
       </c>
       <c r="C297">
-        <v>1767.7</v>
+        <v>1761.39</v>
       </c>
       <c r="D297">
-        <v>1755.79</v>
+        <v>1768.41</v>
       </c>
       <c r="E297" t="s">
         <v>1101</v>
@@ -11722,16 +11707,16 @@
         <v>1788.24</v>
       </c>
       <c r="E298" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="F298" t="s">
-        <v>311</v>
+        <v>1103</v>
       </c>
       <c r="G298" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H298" t="s">
-        <v>1118</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -11846,22 +11831,22 @@
         <v>1766.19</v>
       </c>
       <c r="C303">
-        <v>1779.217662934714</v>
+        <v>1753.162337065286</v>
       </c>
       <c r="D303">
-        <v>1740.134674130573</v>
+        <v>1792.245325869427</v>
       </c>
       <c r="E303" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F303" t="s">
-        <v>310</v>
+        <v>1103</v>
       </c>
       <c r="G303" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="H303" t="s">
-        <v>1123</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -11872,10 +11857,10 @@
         <v>1784.52</v>
       </c>
       <c r="C304">
-        <v>1797.682867562525</v>
+        <v>1766.19</v>
       </c>
       <c r="D304">
-        <v>1758.194264874951</v>
+        <v>1821.18</v>
       </c>
       <c r="E304" t="s">
         <v>1101</v>
@@ -11898,10 +11883,10 @@
         <v>1795.23</v>
       </c>
       <c r="C305">
-        <v>1808.47186601118</v>
+        <v>1766.19</v>
       </c>
       <c r="D305">
-        <v>1768.74626797764</v>
+        <v>1853.31</v>
       </c>
       <c r="E305" t="s">
         <v>1101</v>
@@ -11924,10 +11909,10 @@
         <v>1808.78</v>
       </c>
       <c r="C306">
-        <v>1822.121812694586</v>
+        <v>1795.438187305414</v>
       </c>
       <c r="D306">
-        <v>1782.096374610828</v>
+        <v>1835.463625389172</v>
       </c>
       <c r="E306" t="s">
         <v>1101</v>
@@ -11950,10 +11935,10 @@
         <v>1803.08</v>
       </c>
       <c r="C307">
-        <v>1808.78</v>
+        <v>1766.19</v>
       </c>
       <c r="D307">
-        <v>1791.68</v>
+        <v>1876.86</v>
       </c>
       <c r="E307" t="s">
         <v>1101</v>
@@ -11976,10 +11961,10 @@
         <v>1798.49</v>
       </c>
       <c r="C308">
-        <v>1811.755912224309</v>
+        <v>1785.224087775691</v>
       </c>
       <c r="D308">
-        <v>1771.958175551381</v>
+        <v>1825.021824448619</v>
       </c>
       <c r="E308" t="s">
         <v>1101</v>
@@ -12002,10 +11987,10 @@
         <v>1802.36</v>
       </c>
       <c r="C309">
-        <v>1808.78</v>
+        <v>1798.49</v>
       </c>
       <c r="D309">
-        <v>1789.52</v>
+        <v>1810.1</v>
       </c>
       <c r="E309" t="s">
         <v>1101</v>
@@ -12028,10 +12013,10 @@
         <v>1809.17</v>
       </c>
       <c r="C310">
-        <v>1822.514689388795</v>
+        <v>1798.49</v>
       </c>
       <c r="D310">
-        <v>1782.48062122241</v>
+        <v>1830.53</v>
       </c>
       <c r="E310" t="s">
         <v>1101</v>
@@ -12054,10 +12039,10 @@
         <v>1810.12</v>
       </c>
       <c r="C311">
-        <v>1823.471696720842</v>
+        <v>1796.768303279158</v>
       </c>
       <c r="D311">
-        <v>1783.416606558316</v>
+        <v>1836.823393441683</v>
       </c>
       <c r="E311" t="s">
         <v>1101</v>
@@ -12086,16 +12071,16 @@
         <v>1770.24384451509</v>
       </c>
       <c r="E312" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="F312" t="s">
-        <v>1103</v>
+        <v>320</v>
       </c>
       <c r="G312" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="H312" t="s">
-        <v>1103</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -12106,22 +12091,22 @@
         <v>1809.35</v>
       </c>
       <c r="C313">
-        <v>1796.75</v>
+        <v>1810.12</v>
       </c>
       <c r="D313">
-        <v>1834.55</v>
+        <v>1807.81</v>
       </c>
       <c r="E313" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="F313" t="s">
-        <v>321</v>
+        <v>1103</v>
       </c>
       <c r="G313" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H313" t="s">
-        <v>1124</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -12132,10 +12117,10 @@
         <v>1817.61</v>
       </c>
       <c r="C314">
-        <v>1796.75</v>
+        <v>1831.016944001928</v>
       </c>
       <c r="D314">
-        <v>1859.33</v>
+        <v>1790.796111996144</v>
       </c>
       <c r="E314" t="s">
         <v>1101</v>
@@ -12158,22 +12143,22 @@
         <v>1841.61</v>
       </c>
       <c r="C315">
-        <v>1855.19397133785</v>
+        <v>1796.75</v>
       </c>
       <c r="D315">
-        <v>1814.442057324299</v>
+        <v>1931.33</v>
       </c>
       <c r="E315" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="F315" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="G315" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="H315" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -12184,10 +12169,10 @@
         <v>1871.52</v>
       </c>
       <c r="C316">
-        <v>1885.324591655244</v>
+        <v>1796.75</v>
       </c>
       <c r="D316">
-        <v>1843.910816689513</v>
+        <v>2021.06</v>
       </c>
       <c r="E316" t="s">
         <v>1101</v>
@@ -12210,10 +12195,10 @@
         <v>1887.15</v>
       </c>
       <c r="C317">
-        <v>1901.069880707764</v>
+        <v>1796.75</v>
       </c>
       <c r="D317">
-        <v>1859.310238584473</v>
+        <v>2067.95</v>
       </c>
       <c r="E317" t="s">
         <v>1101</v>
@@ -12236,10 +12221,10 @@
         <v>1901.28</v>
       </c>
       <c r="C318">
-        <v>1915.304105551788</v>
+        <v>1796.75</v>
       </c>
       <c r="D318">
-        <v>1873.231788896424</v>
+        <v>2110.34</v>
       </c>
       <c r="E318" t="s">
         <v>1101</v>
@@ -12262,10 +12247,10 @@
         <v>1941.92</v>
       </c>
       <c r="C319">
-        <v>1956.243871840617</v>
+        <v>1796.75</v>
       </c>
       <c r="D319">
-        <v>1913.272256318767</v>
+        <v>2232.26</v>
       </c>
       <c r="E319" t="s">
         <v>1101</v>
@@ -12288,10 +12273,10 @@
         <v>1959.76</v>
       </c>
       <c r="C320">
-        <v>1974.215462160319</v>
+        <v>1796.75</v>
       </c>
       <c r="D320">
-        <v>1930.849075679361</v>
+        <v>2285.78</v>
       </c>
       <c r="E320" t="s">
         <v>1101</v>
@@ -12314,10 +12299,10 @@
         <v>1970.42</v>
       </c>
       <c r="C321">
-        <v>1984.954091802025</v>
+        <v>1955.885908197975</v>
       </c>
       <c r="D321">
-        <v>1941.35181639595</v>
+        <v>1999.48818360405</v>
       </c>
       <c r="E321" t="s">
         <v>1101</v>
@@ -12340,10 +12325,10 @@
         <v>1955.92</v>
       </c>
       <c r="C322">
-        <v>1970.347137786572</v>
+        <v>1941.492862213428</v>
       </c>
       <c r="D322">
-        <v>1927.065724426857</v>
+        <v>1984.774275573143</v>
       </c>
       <c r="E322" t="s">
         <v>1101</v>
@@ -12366,10 +12351,10 @@
         <v>1974.88</v>
       </c>
       <c r="C323">
-        <v>1989.446989381951</v>
+        <v>1955.92</v>
       </c>
       <c r="D323">
-        <v>1945.746021236099</v>
+        <v>2012.8</v>
       </c>
       <c r="E323" t="s">
         <v>1101</v>
@@ -12392,10 +12377,10 @@
         <v>1976.66</v>
       </c>
       <c r="C324">
-        <v>1991.240118909365</v>
+        <v>1955.92</v>
       </c>
       <c r="D324">
-        <v>1947.499762181271</v>
+        <v>2018.14</v>
       </c>
       <c r="E324" t="s">
         <v>1101</v>
@@ -12418,10 +12403,10 @@
         <v>2019.07</v>
       </c>
       <c r="C325">
-        <v>2033.962940964218</v>
+        <v>1955.92</v>
       </c>
       <c r="D325">
-        <v>1989.284118071564</v>
+        <v>2145.37</v>
       </c>
       <c r="E325" t="s">
         <v>1101</v>
@@ -12444,10 +12429,10 @@
         <v>2037.72</v>
       </c>
       <c r="C326">
-        <v>2052.750505956508</v>
+        <v>1955.92</v>
       </c>
       <c r="D326">
-        <v>2007.658988086984</v>
+        <v>2201.32</v>
       </c>
       <c r="E326" t="s">
         <v>1101</v>
@@ -12470,10 +12455,10 @@
         <v>2063.1</v>
       </c>
       <c r="C327">
-        <v>2078.317712364246</v>
+        <v>2047.882287635754</v>
       </c>
       <c r="D327">
-        <v>2032.664575271508</v>
+        <v>2093.535424728492</v>
       </c>
       <c r="E327" t="s">
         <v>1101</v>
@@ -12496,10 +12481,10 @@
         <v>2034.76</v>
       </c>
       <c r="C328">
-        <v>2063.1</v>
+        <v>1955.92</v>
       </c>
       <c r="D328">
-        <v>1978.08</v>
+        <v>2192.44</v>
       </c>
       <c r="E328" t="s">
         <v>1101</v>
@@ -12522,10 +12507,10 @@
         <v>2027.32</v>
       </c>
       <c r="C329">
-        <v>2063.1</v>
+        <v>1955.92</v>
       </c>
       <c r="D329">
-        <v>1955.76</v>
+        <v>2170.12</v>
       </c>
       <c r="E329" t="s">
         <v>1101</v>
@@ -12548,10 +12533,10 @@
         <v>1911.51</v>
       </c>
       <c r="C330">
-        <v>1925.609563453725</v>
+        <v>1897.410436546275</v>
       </c>
       <c r="D330">
-        <v>1883.31087309255</v>
+        <v>1939.70912690745</v>
       </c>
       <c r="E330" t="s">
         <v>1101</v>
@@ -12574,10 +12559,10 @@
         <v>1916.7</v>
       </c>
       <c r="C331">
-        <v>2063.1</v>
+        <v>1911.51</v>
       </c>
       <c r="D331">
-        <v>1623.9</v>
+        <v>1927.08</v>
       </c>
       <c r="E331" t="s">
         <v>1101</v>
@@ -12600,10 +12585,10 @@
         <v>1953.27</v>
       </c>
       <c r="C332">
-        <v>1967.67759101823</v>
+        <v>1938.86240898177</v>
       </c>
       <c r="D332">
-        <v>1924.45481796354</v>
+        <v>1982.08518203646</v>
       </c>
       <c r="E332" t="s">
         <v>1101</v>
@@ -12626,10 +12611,10 @@
         <v>1944.56</v>
       </c>
       <c r="C333">
-        <v>1958.903344847568</v>
+        <v>1930.216655152432</v>
       </c>
       <c r="D333">
-        <v>1915.873310304863</v>
+        <v>1973.246689695136</v>
       </c>
       <c r="E333" t="s">
         <v>1101</v>
@@ -12652,10 +12637,10 @@
         <v>1985.1</v>
       </c>
       <c r="C334">
-        <v>1999.742373522497</v>
+        <v>1944.56</v>
       </c>
       <c r="D334">
-        <v>1955.815252955005</v>
+        <v>2066.18</v>
       </c>
       <c r="E334" t="s">
         <v>1101</v>
@@ -12684,16 +12669,16 @@
         <v>1972.219627526412</v>
       </c>
       <c r="E335" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="F335" t="s">
-        <v>1103</v>
+        <v>342</v>
       </c>
       <c r="G335" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="H335" t="s">
-        <v>1103</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -12704,22 +12689,22 @@
         <v>1929.22</v>
       </c>
       <c r="C336">
-        <v>1943.450194875358</v>
+        <v>1914.989805124642</v>
       </c>
       <c r="D336">
-        <v>1900.759610249285</v>
+        <v>1957.680389750715</v>
       </c>
       <c r="E336" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F336" t="s">
-        <v>1103</v>
+        <v>349</v>
       </c>
       <c r="G336" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="H336" t="s">
-        <v>1103</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -12730,10 +12715,10 @@
         <v>1946.68</v>
       </c>
       <c r="C337">
-        <v>1961.038982262241</v>
+        <v>1932.321017737759</v>
       </c>
       <c r="D337">
-        <v>1917.962035475517</v>
+        <v>1975.397964524483</v>
       </c>
       <c r="E337" t="s">
         <v>1101</v>
@@ -12762,16 +12747,16 @@
         <v>1928.23</v>
       </c>
       <c r="E338" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="F338" t="s">
-        <v>1103</v>
+        <v>346</v>
       </c>
       <c r="G338" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="H338" t="s">
-        <v>1103</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -13120,22 +13105,22 @@
         <v>1946.16</v>
       </c>
       <c r="C352">
-        <v>1946.47</v>
+        <v>1927.92</v>
       </c>
       <c r="D352">
-        <v>1945.54</v>
+        <v>1982.64</v>
       </c>
       <c r="E352" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F352" t="s">
-        <v>1103</v>
+        <v>365</v>
       </c>
       <c r="G352" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="H352" t="s">
-        <v>1103</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -13146,10 +13131,10 @@
         <v>1939.84</v>
       </c>
       <c r="C353">
-        <v>1954.148529471503</v>
+        <v>1925.531470528496</v>
       </c>
       <c r="D353">
-        <v>1911.222941056993</v>
+        <v>1968.457058943007</v>
       </c>
       <c r="E353" t="s">
         <v>1101</v>
@@ -13178,16 +13163,16 @@
         <v>1927.666725537281</v>
       </c>
       <c r="E354" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="F354" t="s">
-        <v>1103</v>
+        <v>365</v>
       </c>
       <c r="G354" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="H354" t="s">
-        <v>1103</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -13198,22 +13183,22 @@
         <v>1954.15</v>
       </c>
       <c r="C355">
-        <v>1939.735917979453</v>
+        <v>1968.564082020547</v>
       </c>
       <c r="D355">
-        <v>1982.978164041095</v>
+        <v>1925.321835958905</v>
       </c>
       <c r="E355" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="F355" t="s">
-        <v>365</v>
+        <v>1103</v>
       </c>
       <c r="G355" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="H355" t="s">
-        <v>1126</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -13224,10 +13209,10 @@
         <v>1959.45</v>
       </c>
       <c r="C356">
-        <v>1944.99682444277</v>
+        <v>1973.90317555723</v>
       </c>
       <c r="D356">
-        <v>1988.35635111446</v>
+        <v>1930.54364888554</v>
       </c>
       <c r="E356" t="s">
         <v>1101</v>
@@ -13250,10 +13235,10 @@
         <v>1944.22</v>
       </c>
       <c r="C357">
-        <v>1929.879163039691</v>
+        <v>1958.560836960309</v>
       </c>
       <c r="D357">
-        <v>1972.901673920619</v>
+        <v>1915.538326079381</v>
       </c>
       <c r="E357" t="s">
         <v>1101</v>
@@ -13276,10 +13261,10 @@
         <v>1949.85</v>
       </c>
       <c r="C358">
-        <v>1935.467635377139</v>
+        <v>1964.232364622861</v>
       </c>
       <c r="D358">
-        <v>1978.614729245722</v>
+        <v>1921.085270754278</v>
       </c>
       <c r="E358" t="s">
         <v>1101</v>
@@ -13308,16 +13293,16 @@
         <v>1838.04</v>
       </c>
       <c r="E359" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F359" t="s">
-        <v>399</v>
+        <v>1103</v>
       </c>
       <c r="G359" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="H359" t="s">
-        <v>1127</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -13328,22 +13313,22 @@
         <v>1900.01</v>
       </c>
       <c r="C360">
-        <v>1885.995262144738</v>
+        <v>1949.85</v>
       </c>
       <c r="D360">
-        <v>1928.039475710524</v>
+        <v>1800.33</v>
       </c>
       <c r="E360" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="F360" t="s">
-        <v>367</v>
+        <v>1103</v>
       </c>
       <c r="G360" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="H360" t="s">
-        <v>1128</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -13354,10 +13339,10 @@
         <v>1863.18</v>
       </c>
       <c r="C361">
-        <v>1849.436925343989</v>
+        <v>1876.923074656011</v>
       </c>
       <c r="D361">
-        <v>1890.666149312022</v>
+        <v>1835.693850687979</v>
       </c>
       <c r="E361" t="s">
         <v>1101</v>
@@ -13380,10 +13365,10 @@
         <v>1867.75</v>
       </c>
       <c r="C362">
-        <v>1853.973216388774</v>
+        <v>1881.526783611226</v>
       </c>
       <c r="D362">
-        <v>1895.303567222452</v>
+        <v>1840.196432777548</v>
       </c>
       <c r="E362" t="s">
         <v>1101</v>
@@ -13406,10 +13391,10 @@
         <v>1860.73</v>
       </c>
       <c r="C363">
-        <v>1847.004996884531</v>
+        <v>1874.455003115469</v>
       </c>
       <c r="D363">
-        <v>1888.180006230937</v>
+        <v>1833.279993769063</v>
       </c>
       <c r="E363" t="s">
         <v>1101</v>
@@ -13438,16 +13423,16 @@
         <v>1923.04</v>
       </c>
       <c r="E364" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F364" t="s">
-        <v>1103</v>
+        <v>379</v>
       </c>
       <c r="G364" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="H364" t="s">
-        <v>1103</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -13458,22 +13443,22 @@
         <v>1897.21</v>
       </c>
       <c r="C365">
-        <v>1883.215915333929</v>
+        <v>1911.204084666071</v>
       </c>
       <c r="D365">
-        <v>1925.198169332142</v>
+        <v>1869.221830667858</v>
       </c>
       <c r="E365" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="F365" t="s">
-        <v>1103</v>
+        <v>375</v>
       </c>
       <c r="G365" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="H365" t="s">
-        <v>1103</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -13484,10 +13469,10 @@
         <v>1885.24</v>
       </c>
       <c r="C366">
-        <v>1871.33420771772</v>
+        <v>1899.14579228228</v>
       </c>
       <c r="D366">
-        <v>1913.051584564559</v>
+        <v>1857.428415435441</v>
       </c>
       <c r="E366" t="s">
         <v>1101</v>
@@ -13516,16 +13501,16 @@
         <v>1934.046809196246</v>
       </c>
       <c r="E367" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F367" t="s">
-        <v>1103</v>
+        <v>376</v>
       </c>
       <c r="G367" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="H367" t="s">
-        <v>1103</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -13588,22 +13573,22 @@
         <v>1877.88</v>
       </c>
       <c r="C370">
-        <v>1864.028496100737</v>
+        <v>1891.731503899263</v>
       </c>
       <c r="D370">
-        <v>1905.583007798527</v>
+        <v>1850.176992201474</v>
       </c>
       <c r="E370" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="F370" t="s">
-        <v>1103</v>
+        <v>378</v>
       </c>
       <c r="G370" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="H370" t="s">
-        <v>1103</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -13614,10 +13599,10 @@
         <v>1887.6</v>
       </c>
       <c r="C371">
-        <v>1877.88</v>
+        <v>1913.38</v>
       </c>
       <c r="D371">
-        <v>1907.04</v>
+        <v>1836.04</v>
       </c>
       <c r="E371" t="s">
         <v>1101</v>
@@ -13640,10 +13625,10 @@
         <v>1893.53</v>
       </c>
       <c r="C372">
-        <v>1877.88</v>
+        <v>1913.38</v>
       </c>
       <c r="D372">
-        <v>1924.83</v>
+        <v>1853.83</v>
       </c>
       <c r="E372" t="s">
         <v>1101</v>
@@ -13666,22 +13651,22 @@
         <v>1930.07</v>
       </c>
       <c r="C373">
-        <v>1944.306464593505</v>
+        <v>1915.833535406495</v>
       </c>
       <c r="D373">
-        <v>1901.59707081299</v>
+        <v>1958.54292918701</v>
       </c>
       <c r="E373" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="F373" t="s">
         <v>381</v>
       </c>
       <c r="G373" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="H373" t="s">
-        <v>1129</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -13692,10 +13677,10 @@
         <v>1922.47</v>
       </c>
       <c r="C374">
-        <v>1930.07</v>
+        <v>1877.88</v>
       </c>
       <c r="D374">
-        <v>1907.27</v>
+        <v>2011.65</v>
       </c>
       <c r="E374" t="s">
         <v>1101</v>
@@ -13718,10 +13703,10 @@
         <v>1890.93</v>
       </c>
       <c r="C375">
-        <v>1904.877762513171</v>
+        <v>1876.982237486829</v>
       </c>
       <c r="D375">
-        <v>1863.034474973658</v>
+        <v>1918.825525026343</v>
       </c>
       <c r="E375" t="s">
         <v>1101</v>
@@ -13744,10 +13729,10 @@
         <v>1901.21</v>
       </c>
       <c r="C376">
-        <v>1930.07</v>
+        <v>1890.93</v>
       </c>
       <c r="D376">
-        <v>1843.49</v>
+        <v>1921.77</v>
       </c>
       <c r="E376" t="s">
         <v>1101</v>
@@ -13770,10 +13755,10 @@
         <v>1908.22</v>
       </c>
       <c r="C377">
-        <v>1922.295295956425</v>
+        <v>1894.144704043575</v>
       </c>
       <c r="D377">
-        <v>1880.069408087149</v>
+        <v>1936.370591912851</v>
       </c>
       <c r="E377" t="s">
         <v>1101</v>
@@ -13796,10 +13781,10 @@
         <v>1898.57</v>
       </c>
       <c r="C378">
-        <v>1912.574116215106</v>
+        <v>1884.565883784893</v>
       </c>
       <c r="D378">
-        <v>1870.561767569787</v>
+        <v>1926.578232430213</v>
       </c>
       <c r="E378" t="s">
         <v>1101</v>
@@ -13822,10 +13807,10 @@
         <v>1904.16</v>
       </c>
       <c r="C379">
-        <v>1908.22</v>
+        <v>1898.57</v>
       </c>
       <c r="D379">
-        <v>1896.04</v>
+        <v>1915.34</v>
       </c>
       <c r="E379" t="s">
         <v>1101</v>
@@ -13848,10 +13833,10 @@
         <v>1907</v>
       </c>
       <c r="C380">
-        <v>1908.22</v>
+        <v>1898.57</v>
       </c>
       <c r="D380">
-        <v>1904.56</v>
+        <v>1923.86</v>
       </c>
       <c r="E380" t="s">
         <v>1101</v>
@@ -13874,10 +13859,10 @@
         <v>1924.58</v>
       </c>
       <c r="C381">
-        <v>1938.775969590413</v>
+        <v>1910.384030409587</v>
       </c>
       <c r="D381">
-        <v>1896.188060819175</v>
+        <v>1952.971939180825</v>
       </c>
       <c r="E381" t="s">
         <v>1101</v>
@@ -13900,10 +13885,10 @@
         <v>1903.72</v>
       </c>
       <c r="C382">
-        <v>1924.58</v>
+        <v>1898.57</v>
       </c>
       <c r="D382">
-        <v>1862</v>
+        <v>1914.02</v>
       </c>
       <c r="E382" t="s">
         <v>1101</v>
@@ -13926,10 +13911,10 @@
         <v>1901.49</v>
       </c>
       <c r="C383">
-        <v>1915.515654540977</v>
+        <v>1887.464345459023</v>
       </c>
       <c r="D383">
-        <v>1873.438690918045</v>
+        <v>1929.541309081955</v>
       </c>
       <c r="E383" t="s">
         <v>1101</v>
@@ -13958,16 +13943,16 @@
         <v>1857.38</v>
       </c>
       <c r="E384" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="F384" t="s">
-        <v>1103</v>
+        <v>398</v>
       </c>
       <c r="G384" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="H384" t="s">
-        <v>1103</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -14004,22 +13989,22 @@
         <v>1877.19</v>
       </c>
       <c r="C386">
-        <v>1863.343585636645</v>
+        <v>1907.55</v>
       </c>
       <c r="D386">
-        <v>1904.882828726711</v>
+        <v>1816.47</v>
       </c>
       <c r="E386" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="F386" t="s">
-        <v>396</v>
+        <v>1103</v>
       </c>
       <c r="G386" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H386" t="s">
-        <v>1130</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -14036,16 +14021,16 @@
         <v>1895.212239517433</v>
       </c>
       <c r="E387" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F387" t="s">
-        <v>1103</v>
+        <v>395</v>
       </c>
       <c r="G387" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="H387" t="s">
-        <v>1103</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -14160,22 +14145,22 @@
         <v>1949.37</v>
       </c>
       <c r="C392">
-        <v>1963.748824076143</v>
+        <v>1902.95</v>
       </c>
       <c r="D392">
-        <v>1920.612351847714</v>
+        <v>2042.21</v>
       </c>
       <c r="E392" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F392" t="s">
-        <v>400</v>
+        <v>1103</v>
       </c>
       <c r="G392" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H392" t="s">
-        <v>1131</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -14186,10 +14171,10 @@
         <v>1951.2</v>
       </c>
       <c r="C393">
-        <v>1965.592322410507</v>
+        <v>1936.807677589493</v>
       </c>
       <c r="D393">
-        <v>1922.415355178987</v>
+        <v>1979.984644821013</v>
       </c>
       <c r="E393" t="s">
         <v>1101</v>
@@ -14218,16 +14203,16 @@
         <v>1834.46229103547</v>
       </c>
       <c r="E394" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="F394" t="s">
-        <v>1103</v>
+        <v>401</v>
       </c>
       <c r="G394" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="H394" t="s">
-        <v>1103</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -14238,22 +14223,22 @@
         <v>1877.19</v>
       </c>
       <c r="C395">
-        <v>1863.343585636645</v>
+        <v>1891.036414363356</v>
       </c>
       <c r="D395">
-        <v>1904.882828726711</v>
+        <v>1849.497171273289</v>
       </c>
       <c r="E395" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="F395" t="s">
-        <v>410</v>
+        <v>1103</v>
       </c>
       <c r="G395" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="H395" t="s">
-        <v>1132</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -14264,10 +14249,10 @@
         <v>1865.29</v>
       </c>
       <c r="C396">
-        <v>1851.531361690706</v>
+        <v>1879.048638309294</v>
       </c>
       <c r="D396">
-        <v>1892.807276618588</v>
+        <v>1837.772723381412</v>
       </c>
       <c r="E396" t="s">
         <v>1101</v>
@@ -14296,16 +14281,16 @@
         <v>1899.73</v>
       </c>
       <c r="E397" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F397" t="s">
-        <v>1103</v>
+        <v>410</v>
       </c>
       <c r="G397" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="H397" t="s">
-        <v>1103</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -14513,7 +14498,7 @@
         <v>1104</v>
       </c>
       <c r="H405" t="s">
-        <v>1133</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -14539,7 +14524,7 @@
         <v>1104</v>
       </c>
       <c r="H406" t="s">
-        <v>1134</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -14758,22 +14743,22 @@
         <v>1870.31</v>
       </c>
       <c r="C415">
-        <v>1884.105666527058</v>
+        <v>1856.514333472942</v>
       </c>
       <c r="D415">
-        <v>1842.718666945885</v>
+        <v>1897.901333054115</v>
       </c>
       <c r="E415" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F415" t="s">
-        <v>422</v>
+        <v>1103</v>
       </c>
       <c r="G415" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H415" t="s">
-        <v>1135</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -14784,10 +14769,10 @@
         <v>1839.89</v>
       </c>
       <c r="C416">
-        <v>1870.31</v>
+        <v>1838.83</v>
       </c>
       <c r="D416">
-        <v>1779.05</v>
+        <v>1842.01</v>
       </c>
       <c r="E416" t="s">
         <v>1101</v>
@@ -14810,10 +14795,10 @@
         <v>1836.69</v>
       </c>
       <c r="C417">
-        <v>1850.237680733986</v>
+        <v>1823.142319266014</v>
       </c>
       <c r="D417">
-        <v>1809.594638532028</v>
+        <v>1863.785361467973</v>
       </c>
       <c r="E417" t="s">
         <v>1101</v>
@@ -14836,10 +14821,10 @@
         <v>1839.6</v>
       </c>
       <c r="C418">
-        <v>1853.169145298467</v>
+        <v>1826.030854701533</v>
       </c>
       <c r="D418">
-        <v>1812.461709403066</v>
+        <v>1866.738290596933</v>
       </c>
       <c r="E418" t="s">
         <v>1101</v>
@@ -14862,10 +14847,10 @@
         <v>1826.96</v>
       </c>
       <c r="C419">
-        <v>1840.435910901548</v>
+        <v>1813.484089098452</v>
       </c>
       <c r="D419">
-        <v>1800.008178196905</v>
+        <v>1853.911821803095</v>
       </c>
       <c r="E419" t="s">
         <v>1101</v>
@@ -14888,10 +14873,10 @@
         <v>1853.29</v>
       </c>
       <c r="C420">
-        <v>1866.960124641333</v>
+        <v>1826.96</v>
       </c>
       <c r="D420">
-        <v>1825.949750717335</v>
+        <v>1905.95</v>
       </c>
       <c r="E420" t="s">
         <v>1101</v>
@@ -14914,10 +14899,10 @@
         <v>1864.61</v>
       </c>
       <c r="C421">
-        <v>1878.363622534776</v>
+        <v>1826.96</v>
       </c>
       <c r="D421">
-        <v>1837.102754930448</v>
+        <v>1939.91</v>
       </c>
       <c r="E421" t="s">
         <v>1101</v>
@@ -14940,10 +14925,10 @@
         <v>1885.49</v>
       </c>
       <c r="C422">
-        <v>1899.397636317029</v>
+        <v>1871.582363682971</v>
       </c>
       <c r="D422">
-        <v>1857.674727365942</v>
+        <v>1913.305272634058</v>
       </c>
       <c r="E422" t="s">
         <v>1101</v>
@@ -14966,10 +14951,10 @@
         <v>1881.38</v>
       </c>
       <c r="C423">
-        <v>1885.49</v>
+        <v>1826.96</v>
       </c>
       <c r="D423">
-        <v>1873.16</v>
+        <v>1990.22</v>
       </c>
       <c r="E423" t="s">
         <v>1101</v>
@@ -14992,10 +14977,10 @@
         <v>1876.53</v>
       </c>
       <c r="C424">
-        <v>1885.49</v>
+        <v>1826.96</v>
       </c>
       <c r="D424">
-        <v>1858.61</v>
+        <v>1975.67</v>
       </c>
       <c r="E424" t="s">
         <v>1101</v>
@@ -15018,10 +15003,10 @@
         <v>1859.98</v>
       </c>
       <c r="C425">
-        <v>1873.699471011221</v>
+        <v>1846.260528988779</v>
       </c>
       <c r="D425">
-        <v>1832.541057977558</v>
+        <v>1887.418942022442</v>
       </c>
       <c r="E425" t="s">
         <v>1101</v>
@@ -15044,10 +15029,10 @@
         <v>1873.21</v>
       </c>
       <c r="C426">
-        <v>1885.49</v>
+        <v>1859.98</v>
       </c>
       <c r="D426">
-        <v>1848.65</v>
+        <v>1899.67</v>
       </c>
       <c r="E426" t="s">
         <v>1101</v>
@@ -15070,10 +15055,10 @@
         <v>1879.4</v>
       </c>
       <c r="C427">
-        <v>1893.262715630538</v>
+        <v>1865.537284369462</v>
       </c>
       <c r="D427">
-        <v>1851.674568738923</v>
+        <v>1907.125431261077</v>
       </c>
       <c r="E427" t="s">
         <v>1101</v>
@@ -15096,10 +15081,10 @@
         <v>1873.55</v>
       </c>
       <c r="C428">
-        <v>1887.369565217407</v>
+        <v>1859.730434782593</v>
       </c>
       <c r="D428">
-        <v>1845.910869565186</v>
+        <v>1901.189130434814</v>
       </c>
       <c r="E428" t="s">
         <v>1101</v>
@@ -15122,10 +15107,10 @@
         <v>1878.3</v>
       </c>
       <c r="C429">
-        <v>1879.4</v>
+        <v>1873.55</v>
       </c>
       <c r="D429">
-        <v>1876.1</v>
+        <v>1887.8</v>
       </c>
       <c r="E429" t="s">
         <v>1101</v>
@@ -15148,10 +15133,10 @@
         <v>1894.51</v>
       </c>
       <c r="C430">
-        <v>1908.48416909078</v>
+        <v>1873.55</v>
       </c>
       <c r="D430">
-        <v>1866.561661818441</v>
+        <v>1936.43</v>
       </c>
       <c r="E430" t="s">
         <v>1101</v>
@@ -15174,10 +15159,10 @@
         <v>1898.26</v>
       </c>
       <c r="C431">
-        <v>1912.261829612018</v>
+        <v>1873.55</v>
       </c>
       <c r="D431">
-        <v>1870.256340775965</v>
+        <v>1947.68</v>
       </c>
       <c r="E431" t="s">
         <v>1101</v>
@@ -15206,16 +15191,16 @@
         <v>2081.48</v>
       </c>
       <c r="E432" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="F432" t="s">
-        <v>442</v>
+        <v>1103</v>
       </c>
       <c r="G432" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="H432" t="s">
-        <v>1136</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -15319,7 +15304,7 @@
         <v>1105</v>
       </c>
       <c r="H436" t="s">
-        <v>1137</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -15330,22 +15315,22 @@
         <v>1843.45</v>
       </c>
       <c r="C437">
-        <v>1857.047543433604</v>
+        <v>1829.852456566396</v>
       </c>
       <c r="D437">
-        <v>1816.254913132791</v>
+        <v>1870.645086867209</v>
       </c>
       <c r="E437" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F437" t="s">
-        <v>1103</v>
+        <v>447</v>
       </c>
       <c r="G437" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="H437" t="s">
-        <v>1103</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -15362,16 +15347,16 @@
         <v>1827.240425233163</v>
       </c>
       <c r="E438" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="F438" t="s">
-        <v>1103</v>
+        <v>450</v>
       </c>
       <c r="G438" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="H438" t="s">
-        <v>1103</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -15460,22 +15445,22 @@
         <v>1837.45</v>
       </c>
       <c r="C442">
-        <v>1827.43</v>
+        <v>1846.11</v>
       </c>
       <c r="D442">
-        <v>1857.49</v>
+        <v>1820.13</v>
       </c>
       <c r="E442" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="F442" t="s">
-        <v>450</v>
+        <v>1103</v>
       </c>
       <c r="G442" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H442" t="s">
-        <v>1138</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -15486,10 +15471,10 @@
         <v>1840.02</v>
       </c>
       <c r="C443">
-        <v>1827.43</v>
+        <v>1846.11</v>
       </c>
       <c r="D443">
-        <v>1865.2</v>
+        <v>1827.84</v>
       </c>
       <c r="E443" t="s">
         <v>1101</v>
@@ -15518,16 +15503,16 @@
         <v>1898.976970468788</v>
       </c>
       <c r="E444" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F444" t="s">
-        <v>1103</v>
+        <v>452</v>
       </c>
       <c r="G444" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="H444" t="s">
-        <v>1103</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -15564,22 +15549,22 @@
         <v>1855.92</v>
       </c>
       <c r="C446">
-        <v>1842.230476113106</v>
+        <v>1869.609523886894</v>
       </c>
       <c r="D446">
-        <v>1883.299047773789</v>
+        <v>1828.540952226212</v>
       </c>
       <c r="E446" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="F446" t="s">
-        <v>1103</v>
+        <v>461</v>
       </c>
       <c r="G446" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="H446" t="s">
-        <v>1103</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -15590,10 +15575,10 @@
         <v>1855.92</v>
       </c>
       <c r="C447">
-        <v>1855.92</v>
+        <v>1871.37</v>
       </c>
       <c r="D447">
-        <v>1855.92</v>
+        <v>1825.02</v>
       </c>
       <c r="E447" t="s">
         <v>1101</v>
@@ -15622,16 +15607,16 @@
         <v>1878.012188405442</v>
       </c>
       <c r="E448" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F448" t="s">
-        <v>1103</v>
+        <v>460</v>
       </c>
       <c r="G448" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="H448" t="s">
-        <v>1103</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -16058,22 +16043,22 @@
         <v>1775.76</v>
       </c>
       <c r="C465">
-        <v>1775.73</v>
+        <v>1843.31</v>
       </c>
       <c r="D465">
-        <v>1775.82</v>
+        <v>1640.66</v>
       </c>
       <c r="E465" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="F465" t="s">
-        <v>1103</v>
+        <v>531</v>
       </c>
       <c r="G465" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="H465" t="s">
-        <v>1103</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -16090,16 +16075,16 @@
         <v>1799.04</v>
       </c>
       <c r="E466" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F466" t="s">
-        <v>1103</v>
+        <v>473</v>
       </c>
       <c r="G466" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="H466" t="s">
-        <v>1103</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -16604,22 +16589,22 @@
         <v>1745.24</v>
       </c>
       <c r="C486">
-        <v>1758.113132822731</v>
+        <v>1732.366867177269</v>
       </c>
       <c r="D486">
-        <v>1719.493734354538</v>
+        <v>1770.986265645462</v>
       </c>
       <c r="E486" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F486" t="s">
-        <v>498</v>
+        <v>1103</v>
       </c>
       <c r="G486" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H486" t="s">
-        <v>1139</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -16630,10 +16615,10 @@
         <v>1738.87</v>
       </c>
       <c r="C487">
-        <v>1745.24</v>
+        <v>1736.43</v>
       </c>
       <c r="D487">
-        <v>1726.13</v>
+        <v>1743.75</v>
       </c>
       <c r="E487" t="s">
         <v>1101</v>
@@ -16656,10 +16641,10 @@
         <v>1726.93</v>
       </c>
       <c r="C488">
-        <v>1739.6680757177</v>
+        <v>1714.1919242823</v>
       </c>
       <c r="D488">
-        <v>1701.4538485646</v>
+        <v>1752.4061514354</v>
       </c>
       <c r="E488" t="s">
         <v>1101</v>
@@ -16688,16 +16673,16 @@
         <v>1759.702220314174</v>
       </c>
       <c r="E489" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="F489" t="s">
-        <v>498</v>
+        <v>1103</v>
       </c>
       <c r="G489" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="H489" t="s">
-        <v>1139</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -16760,22 +16745,22 @@
         <v>1711.91</v>
       </c>
       <c r="C492">
-        <v>1732.54</v>
+        <v>1699.282713890032</v>
       </c>
       <c r="D492">
-        <v>1670.65</v>
+        <v>1737.164572219937</v>
       </c>
       <c r="E492" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F492" t="s">
-        <v>503</v>
+        <v>1103</v>
       </c>
       <c r="G492" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="H492" t="s">
-        <v>1140</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -16792,16 +16777,16 @@
         <v>1709.725670622991</v>
       </c>
       <c r="E493" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="F493" t="s">
-        <v>501</v>
+        <v>1103</v>
       </c>
       <c r="G493" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H493" t="s">
-        <v>1141</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -16864,22 +16849,22 @@
         <v>1728.28</v>
       </c>
       <c r="C496">
-        <v>1741.028033505346</v>
+        <v>1715.531966494654</v>
       </c>
       <c r="D496">
-        <v>1702.783932989308</v>
+        <v>1753.776067010692</v>
       </c>
       <c r="E496" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F496" t="s">
-        <v>503</v>
+        <v>1103</v>
       </c>
       <c r="G496" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="H496" t="s">
-        <v>1140</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -16890,10 +16875,10 @@
         <v>1743.4</v>
       </c>
       <c r="C497">
-        <v>1756.259560726977</v>
+        <v>1730.540439273023</v>
       </c>
       <c r="D497">
-        <v>1717.680878546046</v>
+        <v>1769.119121453954</v>
       </c>
       <c r="E497" t="s">
         <v>1101</v>
@@ -16916,10 +16901,10 @@
         <v>1737.59</v>
       </c>
       <c r="C498">
-        <v>1750.406705359406</v>
+        <v>1724.773294640594</v>
       </c>
       <c r="D498">
-        <v>1711.956589281188</v>
+        <v>1763.223410718812</v>
       </c>
       <c r="E498" t="s">
         <v>1101</v>
@@ -16942,10 +16927,10 @@
         <v>1755.49</v>
       </c>
       <c r="C499">
-        <v>1768.438738247448</v>
+        <v>1742.541261752552</v>
       </c>
       <c r="D499">
-        <v>1729.592523505104</v>
+        <v>1781.387476494896</v>
       </c>
       <c r="E499" t="s">
         <v>1101</v>
@@ -16968,10 +16953,10 @@
         <v>1744.03</v>
       </c>
       <c r="C500">
-        <v>1755.49</v>
+        <v>1737.59</v>
       </c>
       <c r="D500">
-        <v>1721.11</v>
+        <v>1756.91</v>
       </c>
       <c r="E500" t="s">
         <v>1101</v>
@@ -16994,10 +16979,10 @@
         <v>1732.83</v>
       </c>
       <c r="C501">
-        <v>1745.611594937781</v>
+        <v>1720.048405062219</v>
       </c>
       <c r="D501">
-        <v>1707.266810124438</v>
+        <v>1758.393189875562</v>
       </c>
       <c r="E501" t="s">
         <v>1101</v>
@@ -17020,10 +17005,10 @@
         <v>1745.38</v>
       </c>
       <c r="C502">
-        <v>1758.254165482191</v>
+        <v>1732.505834517809</v>
       </c>
       <c r="D502">
-        <v>1719.631669035619</v>
+        <v>1771.128330964381</v>
       </c>
       <c r="E502" t="s">
         <v>1101</v>
@@ -17046,10 +17031,10 @@
         <v>1736.3</v>
       </c>
       <c r="C503">
-        <v>1749.1071901401</v>
+        <v>1723.4928098599</v>
       </c>
       <c r="D503">
-        <v>1710.6856197198</v>
+        <v>1761.9143802802</v>
       </c>
       <c r="E503" t="s">
         <v>1101</v>
@@ -17072,10 +17057,10 @@
         <v>1763.57</v>
       </c>
       <c r="C504">
-        <v>1776.578337450542</v>
+        <v>1736.3</v>
       </c>
       <c r="D504">
-        <v>1737.553325098916</v>
+        <v>1818.11</v>
       </c>
       <c r="E504" t="s">
         <v>1101</v>
@@ -17098,10 +17083,10 @@
         <v>1777.03</v>
       </c>
       <c r="C505">
-        <v>1790.137620281439</v>
+        <v>1763.922379718561</v>
       </c>
       <c r="D505">
-        <v>1750.814759437123</v>
+        <v>1803.245240562877</v>
       </c>
       <c r="E505" t="s">
         <v>1101</v>
@@ -17124,10 +17109,10 @@
         <v>1771.38</v>
       </c>
       <c r="C506">
-        <v>1784.445945096107</v>
+        <v>1758.314054903893</v>
       </c>
       <c r="D506">
-        <v>1745.248109807786</v>
+        <v>1797.511890192214</v>
       </c>
       <c r="E506" t="s">
         <v>1101</v>
@@ -17150,10 +17135,10 @@
         <v>1778.8</v>
       </c>
       <c r="C507">
-        <v>1791.920676047463</v>
+        <v>1771.38</v>
       </c>
       <c r="D507">
-        <v>1752.558647905074</v>
+        <v>1793.64</v>
       </c>
       <c r="E507" t="s">
         <v>1101</v>
@@ -17182,16 +17167,16 @@
         <v>1820.13071846869</v>
       </c>
       <c r="E508" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="F508" t="s">
-        <v>516</v>
+        <v>1103</v>
       </c>
       <c r="G508" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="H508" t="s">
-        <v>1142</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -17254,22 +17239,22 @@
         <v>1781.31</v>
       </c>
       <c r="C511">
-        <v>1794.449190156345</v>
+        <v>1768.170809843655</v>
       </c>
       <c r="D511">
-        <v>1755.03161968731</v>
+        <v>1807.588380312689</v>
       </c>
       <c r="E511" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F511" t="s">
-        <v>525</v>
+        <v>1103</v>
       </c>
       <c r="G511" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="H511" t="s">
-        <v>1143</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -17280,10 +17265,10 @@
         <v>1776.62</v>
       </c>
       <c r="C512">
-        <v>1789.72459606445</v>
+        <v>1763.51540393555</v>
       </c>
       <c r="D512">
-        <v>1750.4108078711</v>
+        <v>1802.8291921289</v>
       </c>
       <c r="E512" t="s">
         <v>1101</v>
@@ -17306,10 +17291,10 @@
         <v>1781.7</v>
       </c>
       <c r="C513">
-        <v>1794.842066850553</v>
+        <v>1768.557933149447</v>
       </c>
       <c r="D513">
-        <v>1755.415866298893</v>
+        <v>1807.984133701107</v>
       </c>
       <c r="E513" t="s">
         <v>1101</v>
@@ -17332,10 +17317,10 @@
         <v>1771.9</v>
       </c>
       <c r="C514">
-        <v>1781.7</v>
+        <v>1758.830219311615</v>
       </c>
       <c r="D514">
-        <v>1752.3</v>
+        <v>1798.039561376771</v>
       </c>
       <c r="E514" t="s">
         <v>1101</v>
@@ -17364,16 +17349,16 @@
         <v>1795.340320317307</v>
       </c>
       <c r="E515" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="F515" t="s">
-        <v>525</v>
+        <v>1103</v>
       </c>
       <c r="G515" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H515" t="s">
-        <v>1143</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -17462,22 +17447,22 @@
         <v>1814.88</v>
       </c>
       <c r="C519">
-        <v>1828.266807142467</v>
+        <v>1778.72</v>
       </c>
       <c r="D519">
-        <v>1788.106385715067</v>
+        <v>1887.2</v>
       </c>
       <c r="E519" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F519" t="s">
-        <v>526</v>
+        <v>1103</v>
       </c>
       <c r="G519" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="H519" t="s">
-        <v>1144</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -17494,16 +17479,16 @@
         <v>1936.28</v>
       </c>
       <c r="E520" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="F520" t="s">
-        <v>555</v>
+        <v>1103</v>
       </c>
       <c r="G520" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="H520" t="s">
-        <v>1145</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -17592,22 +17577,22 @@
         <v>1826.43</v>
       </c>
       <c r="C524">
-        <v>1837.39</v>
+        <v>1815.43</v>
       </c>
       <c r="D524">
-        <v>1804.51</v>
+        <v>1848.43</v>
       </c>
       <c r="E524" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F524" t="s">
-        <v>531</v>
+        <v>1103</v>
       </c>
       <c r="G524" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="H524" t="s">
-        <v>1146</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -17618,10 +17603,10 @@
         <v>1843.89</v>
       </c>
       <c r="C525">
-        <v>1857.490788934763</v>
+        <v>1815.43</v>
       </c>
       <c r="D525">
-        <v>1816.688422130474</v>
+        <v>1900.81</v>
       </c>
       <c r="E525" t="s">
         <v>1101</v>
@@ -17644,10 +17629,10 @@
         <v>1866.85</v>
       </c>
       <c r="C526">
-        <v>1880.620145086129</v>
+        <v>1815.43</v>
       </c>
       <c r="D526">
-        <v>1839.309709827742</v>
+        <v>1969.69</v>
       </c>
       <c r="E526" t="s">
         <v>1101</v>
@@ -17670,10 +17655,10 @@
         <v>1869.51</v>
       </c>
       <c r="C527">
-        <v>1883.29976561586</v>
+        <v>1855.72023438414</v>
       </c>
       <c r="D527">
-        <v>1841.93046876828</v>
+        <v>1897.08953123172</v>
       </c>
       <c r="E527" t="s">
         <v>1101</v>
@@ -17696,10 +17681,10 @@
         <v>1869.38</v>
       </c>
       <c r="C528">
-        <v>1883.168806717791</v>
+        <v>1855.591193282209</v>
       </c>
       <c r="D528">
-        <v>1841.802386564419</v>
+        <v>1896.957613435582</v>
       </c>
       <c r="E528" t="s">
         <v>1101</v>
@@ -17722,10 +17707,10 @@
         <v>1877.03</v>
       </c>
       <c r="C529">
-        <v>1890.875234181116</v>
+        <v>1869.38</v>
       </c>
       <c r="D529">
-        <v>1849.339531637768</v>
+        <v>1892.33</v>
       </c>
       <c r="E529" t="s">
         <v>1101</v>
@@ -17748,10 +17733,10 @@
         <v>1881.87</v>
       </c>
       <c r="C530">
-        <v>1895.75093469386</v>
+        <v>1867.98906530614</v>
       </c>
       <c r="D530">
-        <v>1854.108130612279</v>
+        <v>1909.631869387721</v>
       </c>
       <c r="E530" t="s">
         <v>1101</v>
@@ -17774,10 +17759,10 @@
         <v>1880.76</v>
       </c>
       <c r="C531">
-        <v>1894.632747179574</v>
+        <v>1866.887252820426</v>
       </c>
       <c r="D531">
-        <v>1853.014505640852</v>
+        <v>1908.505494359148</v>
       </c>
       <c r="E531" t="s">
         <v>1101</v>
@@ -17800,10 +17785,10 @@
         <v>1899.12</v>
       </c>
       <c r="C532">
-        <v>1913.128173091555</v>
+        <v>1885.111826908445</v>
       </c>
       <c r="D532">
-        <v>1871.10365381689</v>
+        <v>1927.13634618311</v>
       </c>
       <c r="E532" t="s">
         <v>1101</v>
@@ -17826,10 +17811,10 @@
         <v>1896.61</v>
       </c>
       <c r="C533">
-        <v>1899.12</v>
+        <v>1880.76</v>
       </c>
       <c r="D533">
-        <v>1891.59</v>
+        <v>1928.31</v>
       </c>
       <c r="E533" t="s">
         <v>1101</v>
@@ -17852,10 +17837,10 @@
         <v>1896.5</v>
       </c>
       <c r="C534">
-        <v>1910.488847607383</v>
+        <v>1882.511152392617</v>
       </c>
       <c r="D534">
-        <v>1868.522304785234</v>
+        <v>1924.477695214766</v>
       </c>
       <c r="E534" t="s">
         <v>1101</v>
@@ -17878,10 +17863,10 @@
         <v>1904.18</v>
       </c>
       <c r="C535">
-        <v>1918.225496354878</v>
+        <v>1896.5</v>
       </c>
       <c r="D535">
-        <v>1876.089007290243</v>
+        <v>1919.54</v>
       </c>
       <c r="E535" t="s">
         <v>1101</v>
@@ -17904,10 +17889,10 @@
         <v>1906.63</v>
       </c>
       <c r="C536">
-        <v>1920.693567895421</v>
+        <v>1892.566432104579</v>
       </c>
       <c r="D536">
-        <v>1878.502864209159</v>
+        <v>1934.757135790841</v>
       </c>
       <c r="E536" t="s">
         <v>1101</v>
@@ -17930,10 +17915,10 @@
         <v>1900.35</v>
       </c>
       <c r="C537">
-        <v>1914.367245742521</v>
+        <v>1886.332754257479</v>
       </c>
       <c r="D537">
-        <v>1872.315508514958</v>
+        <v>1928.384491485042</v>
       </c>
       <c r="E537" t="s">
         <v>1101</v>
@@ -17956,10 +17941,10 @@
         <v>1908.26</v>
       </c>
       <c r="C538">
-        <v>1922.335591001985</v>
+        <v>1894.184408998015</v>
       </c>
       <c r="D538">
-        <v>1880.10881799603</v>
+        <v>1936.41118200397</v>
       </c>
       <c r="E538" t="s">
         <v>1101</v>
@@ -17982,10 +17967,10 @@
         <v>1870.47</v>
       </c>
       <c r="C539">
-        <v>1884.266846709297</v>
+        <v>1856.673153290703</v>
       </c>
       <c r="D539">
-        <v>1842.876306581406</v>
+        <v>1898.063693418594</v>
       </c>
       <c r="E539" t="s">
         <v>1101</v>
@@ -18014,16 +17999,16 @@
         <v>1857.92</v>
       </c>
       <c r="E540" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="F540" t="s">
-        <v>1103</v>
+        <v>554</v>
       </c>
       <c r="G540" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="H540" t="s">
-        <v>1103</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -18268,22 +18253,22 @@
         <v>1763.92</v>
       </c>
       <c r="C550">
-        <v>1750.909080900809</v>
+        <v>1776.930919099191</v>
       </c>
       <c r="D550">
-        <v>1789.941838198382</v>
+        <v>1737.898161801618</v>
       </c>
       <c r="E550" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="F550" t="s">
-        <v>567</v>
+        <v>1103</v>
       </c>
       <c r="G550" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H550" t="s">
-        <v>1147</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -18294,10 +18279,10 @@
         <v>1782.95</v>
       </c>
       <c r="C551">
-        <v>1769.7987129757</v>
+        <v>1796.1012870243</v>
       </c>
       <c r="D551">
-        <v>1809.252574048599</v>
+        <v>1756.647425951401</v>
       </c>
       <c r="E551" t="s">
         <v>1101</v>
@@ -18320,10 +18305,10 @@
         <v>1778.78</v>
       </c>
       <c r="C552">
-        <v>1765.659471475317</v>
+        <v>1791.900528524683</v>
       </c>
       <c r="D552">
-        <v>1805.021057049366</v>
+        <v>1752.538942950634</v>
       </c>
       <c r="E552" t="s">
         <v>1101</v>
@@ -18352,16 +18337,16 @@
         <v>1805.244302550524</v>
       </c>
       <c r="E553" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F553" t="s">
-        <v>1103</v>
+        <v>563</v>
       </c>
       <c r="G553" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="H553" t="s">
-        <v>1103</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -18632,22 +18617,22 @@
         <v>1802.36</v>
       </c>
       <c r="C564">
-        <v>1815.654457882227</v>
+        <v>1789.065542117773</v>
       </c>
       <c r="D564">
-        <v>1775.771084235546</v>
+        <v>1828.948915764454</v>
       </c>
       <c r="E564" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F564" t="s">
-        <v>574</v>
+        <v>1103</v>
       </c>
       <c r="G564" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="H564" t="s">
-        <v>1148</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -18658,10 +18643,10 @@
         <v>1808.26</v>
       </c>
       <c r="C565">
-        <v>1821.597977102308</v>
+        <v>1794.922022897692</v>
       </c>
       <c r="D565">
-        <v>1781.584045795384</v>
+        <v>1834.935954204616</v>
       </c>
       <c r="E565" t="s">
         <v>1101</v>
@@ -18684,10 +18669,10 @@
         <v>1806.09</v>
       </c>
       <c r="C566">
-        <v>1819.411970880685</v>
+        <v>1792.768029119315</v>
       </c>
       <c r="D566">
-        <v>1779.44605823863</v>
+        <v>1832.73394176137</v>
       </c>
       <c r="E566" t="s">
         <v>1101</v>
@@ -18710,10 +18695,10 @@
         <v>1807.59</v>
       </c>
       <c r="C567">
-        <v>1808.26</v>
+        <v>1806.09</v>
       </c>
       <c r="D567">
-        <v>1806.25</v>
+        <v>1810.59</v>
       </c>
       <c r="E567" t="s">
         <v>1101</v>
@@ -18736,10 +18721,10 @@
         <v>1827.39</v>
       </c>
       <c r="C568">
-        <v>1840.869082641316</v>
+        <v>1806.09</v>
       </c>
       <c r="D568">
-        <v>1800.431834717368</v>
+        <v>1869.99</v>
       </c>
       <c r="E568" t="s">
         <v>1101</v>
@@ -18762,10 +18747,10 @@
         <v>1829.47</v>
       </c>
       <c r="C569">
-        <v>1842.96442501043</v>
+        <v>1815.975574989571</v>
       </c>
       <c r="D569">
-        <v>1802.481149979141</v>
+        <v>1856.458850020859</v>
       </c>
       <c r="E569" t="s">
         <v>1101</v>
@@ -18788,10 +18773,10 @@
         <v>1811.67</v>
       </c>
       <c r="C570">
-        <v>1825.033129736287</v>
+        <v>1798.306870263713</v>
       </c>
       <c r="D570">
-        <v>1784.943740527426</v>
+        <v>1838.396259472574</v>
       </c>
       <c r="E570" t="s">
         <v>1101</v>
@@ -18814,10 +18799,10 @@
         <v>1812.74</v>
       </c>
       <c r="C571">
-        <v>1826.111022205013</v>
+        <v>1799.368977794987</v>
       </c>
       <c r="D571">
-        <v>1785.997955589973</v>
+        <v>1839.482044410027</v>
       </c>
       <c r="E571" t="s">
         <v>1101</v>
@@ -18840,10 +18825,10 @@
         <v>1810.34</v>
       </c>
       <c r="C572">
-        <v>1812.74</v>
+        <v>1796.986680528579</v>
       </c>
       <c r="D572">
-        <v>1805.54</v>
+        <v>1837.046638942842</v>
       </c>
       <c r="E572" t="s">
         <v>1101</v>
@@ -18866,10 +18851,10 @@
         <v>1803.39</v>
       </c>
       <c r="C573">
-        <v>1816.692055305394</v>
+        <v>1790.087944694606</v>
       </c>
       <c r="D573">
-        <v>1776.785889389213</v>
+        <v>1829.994110610787</v>
       </c>
       <c r="E573" t="s">
         <v>1101</v>
@@ -18892,10 +18877,10 @@
         <v>1806.6</v>
       </c>
       <c r="C574">
-        <v>1819.925732711573</v>
+        <v>1793.274267288427</v>
       </c>
       <c r="D574">
-        <v>1779.948534576853</v>
+        <v>1833.251465423146</v>
       </c>
       <c r="E574" t="s">
         <v>1101</v>
@@ -18918,10 +18903,10 @@
         <v>1801.99</v>
       </c>
       <c r="C575">
-        <v>1806.6</v>
+        <v>1788.698271289202</v>
       </c>
       <c r="D575">
-        <v>1792.77</v>
+        <v>1828.573457421596</v>
       </c>
       <c r="E575" t="s">
         <v>1101</v>
@@ -18944,10 +18929,10 @@
         <v>1797.5</v>
       </c>
       <c r="C576">
-        <v>1810.758609846702</v>
+        <v>1784.241390153298</v>
       </c>
       <c r="D576">
-        <v>1770.982780306595</v>
+        <v>1824.017219693405</v>
       </c>
       <c r="E576" t="s">
         <v>1101</v>
@@ -18970,22 +18955,22 @@
         <v>1798.9</v>
       </c>
       <c r="C577">
-        <v>1797.5</v>
+        <v>1806.6</v>
       </c>
       <c r="D577">
-        <v>1801.7</v>
+        <v>1783.5</v>
       </c>
       <c r="E577" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="F577" t="s">
         <v>584</v>
       </c>
       <c r="G577" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="H577" t="s">
-        <v>1149</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -19002,16 +18987,16 @@
         <v>1780.283518802336</v>
       </c>
       <c r="E578" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F578" t="s">
-        <v>585</v>
+        <v>1103</v>
       </c>
       <c r="G578" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="H578" t="s">
-        <v>1150</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -19193,7 +19178,7 @@
         <v>1105</v>
       </c>
       <c r="H585" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -19204,22 +19189,22 @@
         <v>1729.51</v>
       </c>
       <c r="C586">
-        <v>1716.752893843688</v>
+        <v>1811.87</v>
       </c>
       <c r="D586">
-        <v>1755.024212312624</v>
+        <v>1564.79</v>
       </c>
       <c r="E586" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="F586" t="s">
-        <v>1103</v>
+        <v>606</v>
       </c>
       <c r="G586" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="H586" t="s">
-        <v>1103</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -19230,10 +19215,10 @@
         <v>1729.16</v>
       </c>
       <c r="C587">
-        <v>1716.405475492337</v>
+        <v>1741.914524507663</v>
       </c>
       <c r="D587">
-        <v>1754.669049015326</v>
+        <v>1703.650950984674</v>
       </c>
       <c r="E587" t="s">
         <v>1101</v>
@@ -19262,16 +19247,16 @@
         <v>1796.21</v>
       </c>
       <c r="E588" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F588" t="s">
-        <v>1103</v>
+        <v>602</v>
       </c>
       <c r="G588" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="H588" t="s">
-        <v>1103</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -19297,7 +19282,7 @@
         <v>1105</v>
       </c>
       <c r="H589" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -19323,7 +19308,7 @@
         <v>1105</v>
       </c>
       <c r="H590" t="s">
-        <v>1153</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -19386,22 +19371,22 @@
         <v>1787.45</v>
       </c>
       <c r="C593">
-        <v>1800.634479649785</v>
+        <v>1774.265520350215</v>
       </c>
       <c r="D593">
-        <v>1761.08104070043</v>
+        <v>1813.81895929957</v>
       </c>
       <c r="E593" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F593" t="s">
-        <v>602</v>
+        <v>1103</v>
       </c>
       <c r="G593" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="H593" t="s">
-        <v>1154</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -19412,10 +19397,10 @@
         <v>1779.92</v>
       </c>
       <c r="C594">
-        <v>1793.048937323139</v>
+        <v>1766.791062676861</v>
       </c>
       <c r="D594">
-        <v>1753.662125353721</v>
+        <v>1806.177874646279</v>
       </c>
       <c r="E594" t="s">
         <v>1101</v>
@@ -19438,10 +19423,10 @@
         <v>1780.89</v>
       </c>
       <c r="C595">
-        <v>1787.45</v>
+        <v>1779.92</v>
       </c>
       <c r="D595">
-        <v>1767.77</v>
+        <v>1782.83</v>
       </c>
       <c r="E595" t="s">
         <v>1101</v>
@@ -19464,10 +19449,10 @@
         <v>1805.43</v>
       </c>
       <c r="C596">
-        <v>1818.747102628947</v>
+        <v>1792.112897371053</v>
       </c>
       <c r="D596">
-        <v>1778.795794742106</v>
+        <v>1832.064205257894</v>
       </c>
       <c r="E596" t="s">
         <v>1101</v>
@@ -19490,10 +19475,10 @@
         <v>1802.97</v>
       </c>
       <c r="C597">
-        <v>1805.43</v>
+        <v>1779.92</v>
       </c>
       <c r="D597">
-        <v>1798.05</v>
+        <v>1849.07</v>
       </c>
       <c r="E597" t="s">
         <v>1101</v>
@@ -19516,10 +19501,10 @@
         <v>1790.45</v>
       </c>
       <c r="C598">
-        <v>1803.656608066775</v>
+        <v>1777.243391933225</v>
       </c>
       <c r="D598">
-        <v>1764.036783866449</v>
+        <v>1816.863216133551</v>
       </c>
       <c r="E598" t="s">
         <v>1101</v>
@@ -19542,10 +19527,10 @@
         <v>1791.96</v>
       </c>
       <c r="C599">
-        <v>1805.43</v>
+        <v>1790.45</v>
       </c>
       <c r="D599">
-        <v>1765.02</v>
+        <v>1794.98</v>
       </c>
       <c r="E599" t="s">
         <v>1101</v>
@@ -19568,10 +19553,10 @@
         <v>1818.12</v>
       </c>
       <c r="C600">
-        <v>1831.530705832816</v>
+        <v>1804.709294167184</v>
       </c>
       <c r="D600">
-        <v>1791.298588334368</v>
+        <v>1844.941411665632</v>
       </c>
       <c r="E600" t="s">
         <v>1101</v>
@@ -19600,16 +19585,16 @@
         <v>1783.534836284957</v>
       </c>
       <c r="E601" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="F601" t="s">
-        <v>1103</v>
+        <v>611</v>
       </c>
       <c r="G601" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="H601" t="s">
-        <v>1103</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -19620,22 +19605,22 @@
         <v>1813.69</v>
       </c>
       <c r="C602">
-        <v>1818.12</v>
+        <v>1810.24</v>
       </c>
       <c r="D602">
-        <v>1804.83</v>
+        <v>1820.59</v>
       </c>
       <c r="E602" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F602" t="s">
-        <v>1103</v>
+        <v>610</v>
       </c>
       <c r="G602" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="H602" t="s">
-        <v>1103</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -19646,10 +19631,10 @@
         <v>1814.14</v>
       </c>
       <c r="C603">
-        <v>1827.521348799609</v>
+        <v>1800.758651200391</v>
       </c>
       <c r="D603">
-        <v>1787.377302400782</v>
+        <v>1840.902697599218</v>
       </c>
       <c r="E603" t="s">
         <v>1101</v>
@@ -19672,10 +19657,10 @@
         <v>1809.49</v>
       </c>
       <c r="C604">
-        <v>1822.837049753274</v>
+        <v>1796.142950246726</v>
       </c>
       <c r="D604">
-        <v>1782.795900493452</v>
+        <v>1836.184099506548</v>
       </c>
       <c r="E604" t="s">
         <v>1101</v>
@@ -19698,10 +19683,10 @@
         <v>1827.49</v>
       </c>
       <c r="C605">
-        <v>1840.969820255216</v>
+        <v>1814.010179744784</v>
       </c>
       <c r="D605">
-        <v>1800.530359489568</v>
+        <v>1854.449640510432</v>
       </c>
       <c r="E605" t="s">
         <v>1101</v>
@@ -19724,10 +19709,10 @@
         <v>1822.64</v>
       </c>
       <c r="C606">
-        <v>1827.49</v>
+        <v>1809.49</v>
       </c>
       <c r="D606">
-        <v>1812.94</v>
+        <v>1848.94</v>
       </c>
       <c r="E606" t="s">
         <v>1101</v>
@@ -19750,10 +19735,10 @@
         <v>1794.26</v>
       </c>
       <c r="C607">
-        <v>1827.49</v>
+        <v>1781.025288843647</v>
       </c>
       <c r="D607">
-        <v>1727.8</v>
+        <v>1820.729422312706</v>
       </c>
       <c r="E607" t="s">
         <v>1101</v>
@@ -19776,10 +19761,10 @@
         <v>1789.25</v>
       </c>
       <c r="C608">
-        <v>1802.447756699979</v>
+        <v>1776.052243300021</v>
       </c>
       <c r="D608">
-        <v>1762.854486600042</v>
+        <v>1815.645513399958</v>
       </c>
       <c r="E608" t="s">
         <v>1101</v>
@@ -19808,16 +19793,16 @@
         <v>1820.648242130467</v>
       </c>
       <c r="E609" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="F609" t="s">
-        <v>620</v>
+        <v>1103</v>
       </c>
       <c r="G609" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="H609" t="s">
-        <v>1155</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -19828,22 +19813,22 @@
         <v>1787.42</v>
       </c>
       <c r="C610">
-        <v>1774.235741634385</v>
+        <v>1800.604258365615</v>
       </c>
       <c r="D610">
-        <v>1813.78851673123</v>
+        <v>1761.05148326877</v>
       </c>
       <c r="E610" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="F610" t="s">
-        <v>1103</v>
+        <v>618</v>
       </c>
       <c r="G610" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="H610" t="s">
-        <v>1103</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -19854,10 +19839,10 @@
         <v>1793.48</v>
       </c>
       <c r="C611">
-        <v>1787.42</v>
+        <v>1794.18</v>
       </c>
       <c r="D611">
-        <v>1805.6</v>
+        <v>1792.08</v>
       </c>
       <c r="E611" t="s">
         <v>1101</v>
@@ -19880,10 +19865,10 @@
         <v>1804.57</v>
       </c>
       <c r="C612">
-        <v>1791.25924085059</v>
+        <v>1817.88075914941</v>
       </c>
       <c r="D612">
-        <v>1831.191518298819</v>
+        <v>1777.948481701181</v>
       </c>
       <c r="E612" t="s">
         <v>1101</v>
@@ -19906,10 +19891,10 @@
         <v>1793.6</v>
       </c>
       <c r="C613">
-        <v>1787.42</v>
+        <v>1804.57</v>
       </c>
       <c r="D613">
-        <v>1805.96</v>
+        <v>1771.66</v>
       </c>
       <c r="E613" t="s">
         <v>1101</v>
@@ -19938,16 +19923,16 @@
         <v>1779.26664423389</v>
       </c>
       <c r="E614" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F614" t="s">
-        <v>1103</v>
+        <v>628</v>
       </c>
       <c r="G614" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="H614" t="s">
-        <v>1103</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -20270,22 +20255,22 @@
         <v>1759.86</v>
       </c>
       <c r="C627">
-        <v>1772.840971974864</v>
+        <v>1746.879028025136</v>
       </c>
       <c r="D627">
-        <v>1733.898056050272</v>
+        <v>1785.821943949728</v>
       </c>
       <c r="E627" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F627" t="s">
-        <v>639</v>
+        <v>1103</v>
       </c>
       <c r="G627" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="H627" t="s">
-        <v>1156</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -20296,10 +20281,10 @@
         <v>1762.61</v>
       </c>
       <c r="C628">
-        <v>1775.611256357105</v>
+        <v>1749.608743642895</v>
       </c>
       <c r="D628">
-        <v>1736.60748728579</v>
+        <v>1788.61251271421</v>
       </c>
       <c r="E628" t="s">
         <v>1101</v>
@@ -20322,10 +20307,10 @@
         <v>1755.16</v>
       </c>
       <c r="C629">
-        <v>1768.106304121579</v>
+        <v>1742.213695878421</v>
       </c>
       <c r="D629">
-        <v>1729.267391756842</v>
+        <v>1781.052608243158</v>
       </c>
       <c r="E629" t="s">
         <v>1101</v>
@@ -20348,10 +20333,10 @@
         <v>1756.64</v>
       </c>
       <c r="C630">
-        <v>1769.597220807294</v>
+        <v>1743.682779192706</v>
       </c>
       <c r="D630">
-        <v>1730.725558385411</v>
+        <v>1782.554441614589</v>
       </c>
       <c r="E630" t="s">
         <v>1101</v>
@@ -20374,10 +20359,10 @@
         <v>1754.26</v>
       </c>
       <c r="C631">
-        <v>1767.199665596482</v>
+        <v>1741.320334403518</v>
       </c>
       <c r="D631">
-        <v>1728.380668807036</v>
+        <v>1780.139331192964</v>
       </c>
       <c r="E631" t="s">
         <v>1101</v>
@@ -20400,10 +20385,10 @@
         <v>1760.02</v>
       </c>
       <c r="C632">
-        <v>1773.002152157103</v>
+        <v>1754.26</v>
       </c>
       <c r="D632">
-        <v>1734.055695685793</v>
+        <v>1771.54</v>
       </c>
       <c r="E632" t="s">
         <v>1101</v>
@@ -20426,10 +20411,10 @@
         <v>1792.96</v>
       </c>
       <c r="C633">
-        <v>1806.185122175657</v>
+        <v>1754.26</v>
       </c>
       <c r="D633">
-        <v>1766.509755648686</v>
+        <v>1870.36</v>
       </c>
       <c r="E633" t="s">
         <v>1101</v>
@@ -20452,10 +20437,10 @@
         <v>1795.94</v>
       </c>
       <c r="C634">
-        <v>1809.187103069868</v>
+        <v>1782.692896930133</v>
       </c>
       <c r="D634">
-        <v>1769.445793860265</v>
+        <v>1822.434206139735</v>
       </c>
       <c r="E634" t="s">
         <v>1101</v>
@@ -20478,10 +20463,10 @@
         <v>1767.63</v>
       </c>
       <c r="C635">
-        <v>1795.94</v>
+        <v>1754.26</v>
       </c>
       <c r="D635">
-        <v>1711.01</v>
+        <v>1794.37</v>
       </c>
       <c r="E635" t="s">
         <v>1101</v>
@@ -20504,10 +20489,10 @@
         <v>1764.79</v>
       </c>
       <c r="C636">
-        <v>1777.807336340118</v>
+        <v>1751.772663659882</v>
       </c>
       <c r="D636">
-        <v>1738.755327319764</v>
+        <v>1790.824672680236</v>
       </c>
       <c r="E636" t="s">
         <v>1101</v>
@@ -20536,16 +20521,16 @@
         <v>1716.47</v>
       </c>
       <c r="E637" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="F637" t="s">
-        <v>1103</v>
+        <v>647</v>
       </c>
       <c r="G637" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="H637" t="s">
-        <v>1103</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -20634,22 +20619,22 @@
         <v>1807.66</v>
       </c>
       <c r="C641">
-        <v>1820.99355141891</v>
+        <v>1794.32644858109</v>
       </c>
       <c r="D641">
-        <v>1780.99289716218</v>
+        <v>1834.32710283782</v>
       </c>
       <c r="E641" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F641" t="s">
-        <v>1103</v>
+        <v>648</v>
       </c>
       <c r="G641" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="H641" t="s">
-        <v>1103</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -20660,10 +20645,10 @@
         <v>1792.78</v>
       </c>
       <c r="C642">
-        <v>1806.003794470638</v>
+        <v>1779.556205529362</v>
       </c>
       <c r="D642">
-        <v>1766.332411058724</v>
+        <v>1819.227588941276</v>
       </c>
       <c r="E642" t="s">
         <v>1101</v>
@@ -20686,10 +20671,10 @@
         <v>1796.91</v>
       </c>
       <c r="C643">
-        <v>1807.66</v>
+        <v>1792.78</v>
       </c>
       <c r="D643">
-        <v>1775.41</v>
+        <v>1805.17</v>
       </c>
       <c r="E643" t="s">
         <v>1101</v>
@@ -20712,10 +20697,10 @@
         <v>1798.8</v>
       </c>
       <c r="C644">
-        <v>1812.068198827398</v>
+        <v>1785.531801172601</v>
       </c>
       <c r="D644">
-        <v>1772.263602345203</v>
+        <v>1825.336397654797</v>
       </c>
       <c r="E644" t="s">
         <v>1101</v>
@@ -20738,10 +20723,10 @@
         <v>1783.15</v>
       </c>
       <c r="C645">
-        <v>1796.302762252099</v>
+        <v>1769.997237747901</v>
       </c>
       <c r="D645">
-        <v>1756.844475495802</v>
+        <v>1809.455524504198</v>
       </c>
       <c r="E645" t="s">
         <v>1101</v>
@@ -20764,10 +20749,10 @@
         <v>1793.17</v>
       </c>
       <c r="C646">
-        <v>1806.396671164847</v>
+        <v>1779.943328835154</v>
       </c>
       <c r="D646">
-        <v>1766.716657670307</v>
+        <v>1819.623342329693</v>
       </c>
       <c r="E646" t="s">
         <v>1101</v>
@@ -20790,10 +20775,10 @@
         <v>1787.91</v>
       </c>
       <c r="C647">
-        <v>1793.17</v>
+        <v>1783.15</v>
       </c>
       <c r="D647">
-        <v>1777.39</v>
+        <v>1797.43</v>
       </c>
       <c r="E647" t="s">
         <v>1101</v>
@@ -20816,10 +20801,10 @@
         <v>1769.64</v>
       </c>
       <c r="C648">
-        <v>1782.693110614252</v>
+        <v>1756.586889385748</v>
       </c>
       <c r="D648">
-        <v>1743.533778771495</v>
+        <v>1795.746221228505</v>
       </c>
       <c r="E648" t="s">
         <v>1101</v>
@@ -20848,16 +20833,16 @@
         <v>1835.579999999999</v>
       </c>
       <c r="E649" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="F649" t="s">
-        <v>659</v>
+        <v>1103</v>
       </c>
       <c r="G649" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H649" t="s">
-        <v>1157</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -20868,22 +20853,22 @@
         <v>1817.8</v>
       </c>
       <c r="C650">
-        <v>1831.208345468337</v>
+        <v>1769.64</v>
       </c>
       <c r="D650">
-        <v>1790.983309063326</v>
+        <v>1914.12</v>
       </c>
       <c r="E650" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F650" t="s">
-        <v>658</v>
+        <v>1103</v>
       </c>
       <c r="G650" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="H650" t="s">
-        <v>1158</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -20894,10 +20879,10 @@
         <v>1824.26</v>
       </c>
       <c r="C651">
-        <v>1837.715995326256</v>
+        <v>1769.64</v>
       </c>
       <c r="D651">
-        <v>1797.348009347488</v>
+        <v>1933.5</v>
       </c>
       <c r="E651" t="s">
         <v>1101</v>
@@ -20920,10 +20905,10 @@
         <v>1831.82</v>
       </c>
       <c r="C652">
-        <v>1845.331758937072</v>
+        <v>1769.64</v>
       </c>
       <c r="D652">
-        <v>1804.796482125856</v>
+        <v>1956.18</v>
       </c>
       <c r="E652" t="s">
         <v>1101</v>
@@ -20952,16 +20937,16 @@
         <v>2008.38</v>
       </c>
       <c r="E653" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="F653" t="s">
-        <v>675</v>
+        <v>1103</v>
       </c>
       <c r="G653" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="H653" t="s">
-        <v>1159</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -21102,22 +21087,22 @@
         <v>1858.88</v>
       </c>
       <c r="C659">
-        <v>1867.31</v>
+        <v>1850.47</v>
       </c>
       <c r="D659">
-        <v>1842.02</v>
+        <v>1875.7</v>
       </c>
       <c r="E659" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F659" t="s">
-        <v>667</v>
+        <v>1103</v>
       </c>
       <c r="G659" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H659" t="s">
-        <v>1160</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -21128,10 +21113,10 @@
         <v>1846.05</v>
       </c>
       <c r="C660">
-        <v>1867.31</v>
+        <v>1832.433278605004</v>
       </c>
       <c r="D660">
-        <v>1803.53</v>
+        <v>1873.283442789992</v>
       </c>
       <c r="E660" t="s">
         <v>1101</v>
@@ -21160,16 +21145,16 @@
         <v>1679.87</v>
       </c>
       <c r="E661" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="F661" t="s">
-        <v>1103</v>
+        <v>726</v>
       </c>
       <c r="G661" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="H661" t="s">
-        <v>1103</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -21362,22 +21347,22 @@
         <v>1768.17</v>
       </c>
       <c r="C669">
-        <v>1755.127732310073</v>
+        <v>1781.212267689927</v>
       </c>
       <c r="D669">
-        <v>1794.254535379855</v>
+        <v>1742.085464620146</v>
       </c>
       <c r="E669" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="F669" t="s">
-        <v>685</v>
+        <v>1103</v>
       </c>
       <c r="G669" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H669" t="s">
-        <v>1161</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -21388,10 +21373,10 @@
         <v>1783.6</v>
       </c>
       <c r="C670">
-        <v>1770.443918485352</v>
+        <v>1796.756081514647</v>
       </c>
       <c r="D670">
-        <v>1809.912163029295</v>
+        <v>1757.287836970705</v>
       </c>
       <c r="E670" t="s">
         <v>1101</v>
@@ -21414,10 +21399,10 @@
         <v>1778.39</v>
       </c>
       <c r="C671">
-        <v>1765.272348169526</v>
+        <v>1791.507651830474</v>
       </c>
       <c r="D671">
-        <v>1804.625303660948</v>
+        <v>1752.154696339052</v>
       </c>
       <c r="E671" t="s">
         <v>1101</v>
@@ -21446,16 +21431,16 @@
         <v>1810.409391645512</v>
       </c>
       <c r="E672" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F672" t="s">
-        <v>1103</v>
+        <v>683</v>
       </c>
       <c r="G672" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="H672" t="s">
-        <v>1103</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -21648,22 +21633,22 @@
         <v>1797.91</v>
       </c>
       <c r="C680">
-        <v>1799.18</v>
+        <v>1770.57</v>
       </c>
       <c r="D680">
-        <v>1795.37</v>
+        <v>1852.59</v>
       </c>
       <c r="E680" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F680" t="s">
-        <v>687</v>
+        <v>1103</v>
       </c>
       <c r="G680" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H680" t="s">
-        <v>1162</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -21674,10 +21659,10 @@
         <v>1790.85</v>
       </c>
       <c r="C681">
-        <v>1799.18</v>
+        <v>1770.57</v>
       </c>
       <c r="D681">
-        <v>1774.19</v>
+        <v>1831.41</v>
       </c>
       <c r="E681" t="s">
         <v>1101</v>
@@ -21706,16 +21691,16 @@
         <v>1815.300497625441</v>
       </c>
       <c r="E682" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="F682" t="s">
-        <v>695</v>
+        <v>1103</v>
       </c>
       <c r="G682" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H682" t="s">
-        <v>1163</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -21726,22 +21711,22 @@
         <v>1803.54</v>
       </c>
       <c r="C683">
-        <v>1816.843161726243</v>
+        <v>1788.91</v>
       </c>
       <c r="D683">
-        <v>1776.933676547514</v>
+        <v>1832.8</v>
       </c>
       <c r="E683" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F683" t="s">
-        <v>695</v>
+        <v>1103</v>
       </c>
       <c r="G683" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="H683" t="s">
-        <v>1163</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -21758,16 +21743,16 @@
         <v>1781.781095339786</v>
       </c>
       <c r="E684" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="F684" t="s">
-        <v>1103</v>
+        <v>695</v>
       </c>
       <c r="G684" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="H684" t="s">
-        <v>1103</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -21856,22 +21841,22 @@
         <v>1814.68</v>
       </c>
       <c r="C688">
-        <v>1828.065331914667</v>
+        <v>1804.35</v>
       </c>
       <c r="D688">
-        <v>1787.909336170666</v>
+        <v>1835.34</v>
       </c>
       <c r="E688" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F688" t="s">
-        <v>1103</v>
+        <v>696</v>
       </c>
       <c r="G688" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="H688" t="s">
-        <v>1103</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -21882,10 +21867,10 @@
         <v>1828.94</v>
       </c>
       <c r="C689">
-        <v>1842.430515656761</v>
+        <v>1815.449484343239</v>
       </c>
       <c r="D689">
-        <v>1801.958968686478</v>
+        <v>1855.921031313522</v>
       </c>
       <c r="E689" t="s">
         <v>1101</v>
@@ -21908,10 +21893,10 @@
         <v>1801.24</v>
       </c>
       <c r="C690">
-        <v>1814.52619660655</v>
+        <v>1787.95380339345</v>
       </c>
       <c r="D690">
-        <v>1774.667606786899</v>
+        <v>1827.812393213101</v>
       </c>
       <c r="E690" t="s">
         <v>1101</v>
@@ -21934,10 +21919,10 @@
         <v>1814.53</v>
       </c>
       <c r="C691">
-        <v>1827.914225493818</v>
+        <v>1801.145774506182</v>
       </c>
       <c r="D691">
-        <v>1787.761549012365</v>
+        <v>1841.298450987635</v>
       </c>
       <c r="E691" t="s">
         <v>1101</v>
@@ -21960,10 +21945,10 @@
         <v>1810.28</v>
       </c>
       <c r="C692">
-        <v>1814.53</v>
+        <v>1801.24</v>
       </c>
       <c r="D692">
-        <v>1801.78</v>
+        <v>1828.36</v>
       </c>
       <c r="E692" t="s">
         <v>1101</v>
@@ -21986,10 +21971,10 @@
         <v>1790.88</v>
       </c>
       <c r="C693">
-        <v>1804.089779806544</v>
+        <v>1777.670220193456</v>
       </c>
       <c r="D693">
-        <v>1764.460440386912</v>
+        <v>1817.299559613088</v>
       </c>
       <c r="E693" t="s">
         <v>1101</v>
@@ -22012,22 +21997,22 @@
         <v>1796.51</v>
       </c>
       <c r="C694">
-        <v>1790.88</v>
+        <v>1814.53</v>
       </c>
       <c r="D694">
-        <v>1807.77</v>
+        <v>1760.47</v>
       </c>
       <c r="E694" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="F694" t="s">
         <v>702</v>
       </c>
       <c r="G694" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="H694" t="s">
-        <v>1164</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -22038,10 +22023,10 @@
         <v>1801.71</v>
       </c>
       <c r="C695">
-        <v>1790.88</v>
+        <v>1814.53</v>
       </c>
       <c r="D695">
-        <v>1823.37</v>
+        <v>1776.07</v>
       </c>
       <c r="E695" t="s">
         <v>1101</v>
@@ -22064,22 +22049,22 @@
         <v>1821.46</v>
       </c>
       <c r="C696">
-        <v>1834.895342137065</v>
+        <v>1790.88</v>
       </c>
       <c r="D696">
-        <v>1794.589315725869</v>
+        <v>1882.62</v>
       </c>
       <c r="E696" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="F696" t="s">
-        <v>708</v>
+        <v>729</v>
       </c>
       <c r="G696" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="H696" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -22090,10 +22075,10 @@
         <v>1826.11</v>
       </c>
       <c r="C697">
-        <v>1839.5796411834</v>
+        <v>1812.6403588166</v>
       </c>
       <c r="D697">
-        <v>1799.1707176332</v>
+        <v>1853.0492823668</v>
       </c>
       <c r="E697" t="s">
         <v>1101</v>
@@ -22116,10 +22101,10 @@
         <v>1822.54</v>
       </c>
       <c r="C698">
-        <v>1826.11</v>
+        <v>1790.88</v>
       </c>
       <c r="D698">
-        <v>1815.4</v>
+        <v>1885.86</v>
       </c>
       <c r="E698" t="s">
         <v>1101</v>
@@ -22142,10 +22127,10 @@
         <v>1817.74</v>
       </c>
       <c r="C699">
-        <v>1831.147902899997</v>
+        <v>1804.332097100003</v>
       </c>
       <c r="D699">
-        <v>1790.924194200006</v>
+        <v>1844.555805799994</v>
       </c>
       <c r="E699" t="s">
         <v>1101</v>
@@ -22168,10 +22153,10 @@
         <v>1819.17</v>
       </c>
       <c r="C700">
-        <v>1832.588450778763</v>
+        <v>1805.751549221237</v>
       </c>
       <c r="D700">
-        <v>1792.333098442475</v>
+        <v>1846.006901557525</v>
       </c>
       <c r="E700" t="s">
         <v>1101</v>
@@ -22194,10 +22179,10 @@
         <v>1813.68</v>
       </c>
       <c r="C701">
-        <v>1827.057955775671</v>
+        <v>1800.30204422433</v>
       </c>
       <c r="D701">
-        <v>1786.924088448659</v>
+        <v>1840.435911551341</v>
       </c>
       <c r="E701" t="s">
         <v>1101</v>
@@ -22220,10 +22205,10 @@
         <v>1840.44</v>
       </c>
       <c r="C702">
-        <v>1854.015341255224</v>
+        <v>1826.864658744776</v>
       </c>
       <c r="D702">
-        <v>1813.289317489552</v>
+        <v>1867.590682510448</v>
       </c>
       <c r="E702" t="s">
         <v>1101</v>
@@ -22246,10 +22231,10 @@
         <v>1839.47</v>
       </c>
       <c r="C703">
-        <v>1840.44</v>
+        <v>1813.68</v>
       </c>
       <c r="D703">
-        <v>1837.53</v>
+        <v>1891.05</v>
       </c>
       <c r="E703" t="s">
         <v>1101</v>
@@ -22272,10 +22257,10 @@
         <v>1834.39</v>
       </c>
       <c r="C704">
-        <v>1847.920715614294</v>
+        <v>1820.859284385707</v>
       </c>
       <c r="D704">
-        <v>1807.328568771413</v>
+        <v>1861.451431228587</v>
       </c>
       <c r="E704" t="s">
         <v>1101</v>
@@ -22298,10 +22283,10 @@
         <v>1842.96</v>
       </c>
       <c r="C705">
-        <v>1856.553929125496</v>
+        <v>1834.39</v>
       </c>
       <c r="D705">
-        <v>1815.772141749008</v>
+        <v>1860.1</v>
       </c>
       <c r="E705" t="s">
         <v>1101</v>
@@ -22324,10 +22309,10 @@
         <v>1848</v>
       </c>
       <c r="C706">
-        <v>1861.63110486604</v>
+        <v>1834.36889513396</v>
       </c>
       <c r="D706">
-        <v>1820.73779026792</v>
+        <v>1875.26220973208</v>
       </c>
       <c r="E706" t="s">
         <v>1101</v>
@@ -22356,16 +22341,16 @@
         <v>1846.341769809263</v>
       </c>
       <c r="E707" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="F707" t="s">
-        <v>714</v>
+        <v>1103</v>
       </c>
       <c r="G707" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="H707" t="s">
-        <v>1166</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -22376,22 +22361,22 @@
         <v>1797.1</v>
       </c>
       <c r="C708">
-        <v>1783.844340608896</v>
+        <v>1848</v>
       </c>
       <c r="D708">
-        <v>1823.611318782207</v>
+        <v>1695.3</v>
       </c>
       <c r="E708" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="F708" t="s">
-        <v>1103</v>
+        <v>725</v>
       </c>
       <c r="G708" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="H708" t="s">
-        <v>1103</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -22408,16 +22393,16 @@
         <v>1765.248638564517</v>
       </c>
       <c r="E709" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F709" t="s">
-        <v>718</v>
+        <v>1103</v>
       </c>
       <c r="G709" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="H709" t="s">
-        <v>1167</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -22454,22 +22439,22 @@
         <v>1801</v>
       </c>
       <c r="C711">
-        <v>1848</v>
+        <v>1791.68</v>
       </c>
       <c r="D711">
-        <v>1707</v>
+        <v>1819.64</v>
       </c>
       <c r="E711" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F711" t="s">
-        <v>1103</v>
+        <v>721</v>
       </c>
       <c r="G711" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="H711" t="s">
-        <v>1103</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -22486,16 +22471,16 @@
         <v>1780.125879166815</v>
       </c>
       <c r="E712" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="F712" t="s">
-        <v>1103</v>
+        <v>721</v>
       </c>
       <c r="G712" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="H712" t="s">
-        <v>1103</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -22506,22 +22491,22 @@
         <v>1804.84</v>
       </c>
       <c r="C713">
-        <v>1791.527249293061</v>
+        <v>1818.152750706939</v>
       </c>
       <c r="D713">
-        <v>1831.465501413878</v>
+        <v>1778.214498586122</v>
       </c>
       <c r="E713" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="F713" t="s">
-        <v>723</v>
+        <v>1103</v>
       </c>
       <c r="G713" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H713" t="s">
-        <v>1168</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -22532,10 +22517,10 @@
         <v>1808.16</v>
       </c>
       <c r="C714">
-        <v>1804.84</v>
+        <v>1821.497239488408</v>
       </c>
       <c r="D714">
-        <v>1814.8</v>
+        <v>1781.485521023184</v>
       </c>
       <c r="E714" t="s">
         <v>1101</v>
@@ -22558,10 +22543,10 @@
         <v>1820.46</v>
       </c>
       <c r="C715">
-        <v>1804.84</v>
+        <v>1833.887965998068</v>
       </c>
       <c r="D715">
-        <v>1851.7</v>
+        <v>1793.604068003863</v>
       </c>
       <c r="E715" t="s">
         <v>1101</v>
@@ -22584,10 +22569,10 @@
         <v>1825.94</v>
       </c>
       <c r="C716">
-        <v>1804.84</v>
+        <v>1839.408387239771</v>
       </c>
       <c r="D716">
-        <v>1868.14</v>
+        <v>1799.003225520458</v>
       </c>
       <c r="E716" t="s">
         <v>1101</v>
@@ -22616,16 +22601,16 @@
         <v>1805.860549665623</v>
       </c>
       <c r="E717" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F717" t="s">
-        <v>725</v>
+        <v>1103</v>
       </c>
       <c r="G717" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="H717" t="s">
-        <v>1169</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -22636,22 +22621,22 @@
         <v>1826.63</v>
       </c>
       <c r="C718">
-        <v>1840.103476775679</v>
+        <v>1813.156523224322</v>
       </c>
       <c r="D718">
-        <v>1799.683046448643</v>
+        <v>1853.576953551357</v>
       </c>
       <c r="E718" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F718" t="s">
-        <v>1103</v>
+        <v>725</v>
       </c>
       <c r="G718" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="H718" t="s">
-        <v>1103</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -22662,10 +22647,10 @@
         <v>1858.53</v>
       </c>
       <c r="C719">
-        <v>1872.238775609676</v>
+        <v>1826.63</v>
       </c>
       <c r="D719">
-        <v>1831.112448780648</v>
+        <v>1922.33</v>
       </c>
       <c r="E719" t="s">
         <v>1101</v>
@@ -22688,10 +22673,10 @@
         <v>1871.33</v>
       </c>
       <c r="C720">
-        <v>1885.133190188834</v>
+        <v>1857.526809811166</v>
       </c>
       <c r="D720">
-        <v>1843.723619622331</v>
+        <v>1898.936380377669</v>
       </c>
       <c r="E720" t="s">
         <v>1101</v>
@@ -22714,10 +22699,10 @@
         <v>1853.49</v>
       </c>
       <c r="C721">
-        <v>1867.161599869132</v>
+        <v>1839.818400130868</v>
       </c>
       <c r="D721">
-        <v>1826.146800261736</v>
+        <v>1880.833199738264</v>
       </c>
       <c r="E721" t="s">
         <v>1101</v>
@@ -22740,10 +22725,10 @@
         <v>1869.57</v>
       </c>
       <c r="C722">
-        <v>1871.33</v>
+        <v>1853.49</v>
       </c>
       <c r="D722">
-        <v>1866.05</v>
+        <v>1901.73</v>
       </c>
       <c r="E722" t="s">
         <v>1101</v>
@@ -22772,16 +22757,16 @@
         <v>1926.375281974614</v>
       </c>
       <c r="E723" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="F723" t="s">
-        <v>737</v>
+        <v>1103</v>
       </c>
       <c r="G723" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H723" t="s">
-        <v>1170</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -22896,22 +22881,22 @@
         <v>1903.9</v>
       </c>
       <c r="C728">
-        <v>1909.01</v>
+        <v>1898.47</v>
       </c>
       <c r="D728">
-        <v>1893.68</v>
+        <v>1914.76</v>
       </c>
       <c r="E728" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F728" t="s">
-        <v>735</v>
+        <v>1103</v>
       </c>
       <c r="G728" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H728" t="s">
-        <v>1171</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -22922,10 +22907,10 @@
         <v>1888.98</v>
       </c>
       <c r="C729">
-        <v>1902.913379042127</v>
+        <v>1875.046620957873</v>
       </c>
       <c r="D729">
-        <v>1861.113241915745</v>
+        <v>1916.846758084255</v>
       </c>
       <c r="E729" t="s">
         <v>1101</v>
@@ -22948,10 +22933,10 @@
         <v>1908.85</v>
       </c>
       <c r="C730">
-        <v>1909.01</v>
+        <v>1888.98</v>
       </c>
       <c r="D730">
-        <v>1908.53</v>
+        <v>1948.59</v>
       </c>
       <c r="E730" t="s">
         <v>1101</v>
@@ -22974,10 +22959,10 @@
         <v>1945.02</v>
       </c>
       <c r="C731">
-        <v>1959.366737871507</v>
+        <v>1930.673262128493</v>
       </c>
       <c r="D731">
-        <v>1916.326524256986</v>
+        <v>1973.713475743014</v>
       </c>
       <c r="E731" t="s">
         <v>1101</v>
@@ -23000,10 +22985,10 @@
         <v>1928.58</v>
       </c>
       <c r="C732">
-        <v>1942.8054741464</v>
+        <v>1914.3545258536</v>
       </c>
       <c r="D732">
-        <v>1900.1290517072</v>
+        <v>1957.0309482928</v>
       </c>
       <c r="E732" t="s">
         <v>1101</v>
@@ -23026,10 +23011,10 @@
         <v>1936.27</v>
       </c>
       <c r="C733">
-        <v>1945.02</v>
+        <v>1928.58</v>
       </c>
       <c r="D733">
-        <v>1918.77</v>
+        <v>1951.65</v>
       </c>
       <c r="E733" t="s">
         <v>1101</v>
@@ -23052,10 +23037,10 @@
         <v>1970.64</v>
       </c>
       <c r="C734">
-        <v>1985.175714552604</v>
+        <v>1928.58</v>
       </c>
       <c r="D734">
-        <v>1941.568570894792</v>
+        <v>2054.76</v>
       </c>
       <c r="E734" t="s">
         <v>1101</v>
@@ -23078,10 +23063,10 @@
         <v>1997.58</v>
       </c>
       <c r="C735">
-        <v>2012.314427737177</v>
+        <v>1928.58</v>
       </c>
       <c r="D735">
-        <v>1968.111144525646</v>
+        <v>2135.58</v>
       </c>
       <c r="E735" t="s">
         <v>1101</v>
@@ -23104,10 +23089,10 @@
         <v>2049.73</v>
       </c>
       <c r="C736">
-        <v>2064.849093385859</v>
+        <v>2034.610906614141</v>
       </c>
       <c r="D736">
-        <v>2019.491813228282</v>
+        <v>2079.968186771718</v>
       </c>
       <c r="E736" t="s">
         <v>1101</v>
@@ -23130,10 +23115,10 @@
         <v>1991.81</v>
       </c>
       <c r="C737">
-        <v>2006.501867415166</v>
+        <v>1977.118132584834</v>
       </c>
       <c r="D737">
-        <v>1962.426265169668</v>
+        <v>2021.193734830332</v>
       </c>
       <c r="E737" t="s">
         <v>1101</v>
@@ -23156,10 +23141,10 @@
         <v>1996.67</v>
       </c>
       <c r="C738">
-        <v>2011.39771545069</v>
+        <v>1981.94228454931</v>
       </c>
       <c r="D738">
-        <v>1967.21456909862</v>
+        <v>2026.12543090138</v>
       </c>
       <c r="E738" t="s">
         <v>1101</v>
@@ -23182,10 +23167,10 @@
         <v>1988.42</v>
       </c>
       <c r="C739">
-        <v>1996.67</v>
+        <v>1973.753137696033</v>
       </c>
       <c r="D739">
-        <v>1971.92</v>
+        <v>2017.753724607934</v>
       </c>
       <c r="E739" t="s">
         <v>1101</v>
@@ -23208,10 +23193,10 @@
         <v>1950.69</v>
       </c>
       <c r="C740">
-        <v>1996.67</v>
+        <v>1936.301439420381</v>
       </c>
       <c r="D740">
-        <v>1858.73</v>
+        <v>1979.467121159237</v>
       </c>
       <c r="E740" t="s">
         <v>1101</v>
@@ -23234,10 +23219,10 @@
         <v>1917.74</v>
       </c>
       <c r="C741">
-        <v>1931.885516799675</v>
+        <v>1903.594483200325</v>
       </c>
       <c r="D741">
-        <v>1889.44896640065</v>
+        <v>1946.03103359935</v>
       </c>
       <c r="E741" t="s">
         <v>1101</v>
@@ -23266,16 +23251,16 @@
         <v>1785.02</v>
       </c>
       <c r="E742" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="F742" t="s">
-        <v>1103</v>
+        <v>826</v>
       </c>
       <c r="G742" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="H742" t="s">
-        <v>1103</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -23624,22 +23609,22 @@
         <v>1923.43</v>
       </c>
       <c r="C756">
-        <v>1909.242512969434</v>
+        <v>1937.617487030567</v>
       </c>
       <c r="D756">
-        <v>1951.804974061133</v>
+        <v>1895.055025938867</v>
       </c>
       <c r="E756" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="F756" t="s">
-        <v>766</v>
+        <v>1103</v>
       </c>
       <c r="G756" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H756" t="s">
-        <v>1172</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -23650,10 +23635,10 @@
         <v>1925.22</v>
       </c>
       <c r="C757">
-        <v>1923.43</v>
+        <v>1932.69</v>
       </c>
       <c r="D757">
-        <v>1928.8</v>
+        <v>1910.28</v>
       </c>
       <c r="E757" t="s">
         <v>1101</v>
@@ -23676,10 +23661,10 @@
         <v>1931.52</v>
       </c>
       <c r="C758">
-        <v>1923.43</v>
+        <v>1932.69</v>
       </c>
       <c r="D758">
-        <v>1947.7</v>
+        <v>1929.18</v>
       </c>
       <c r="E758" t="s">
         <v>1101</v>
@@ -23708,16 +23693,16 @@
         <v>1919.144332741925</v>
       </c>
       <c r="E759" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F759" t="s">
-        <v>767</v>
+        <v>1103</v>
       </c>
       <c r="G759" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="H759" t="s">
-        <v>1173</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -23728,22 +23713,22 @@
         <v>1953.63</v>
       </c>
       <c r="C760">
-        <v>1923.43</v>
+        <v>1968.040246428269</v>
       </c>
       <c r="D760">
-        <v>2014.03</v>
+        <v>1924.809507143462</v>
       </c>
       <c r="E760" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="F760" t="s">
-        <v>775</v>
+        <v>1103</v>
       </c>
       <c r="G760" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="H760" t="s">
-        <v>1174</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -23754,22 +23739,22 @@
         <v>1966.53</v>
       </c>
       <c r="C761">
-        <v>1981.035398621327</v>
+        <v>1923.43</v>
       </c>
       <c r="D761">
-        <v>1937.519202757345</v>
+        <v>2052.73</v>
       </c>
       <c r="E761" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="F761" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="G761" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="H761" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -23780,10 +23765,10 @@
         <v>1978.13</v>
       </c>
       <c r="C762">
-        <v>1992.72096183369</v>
+        <v>1963.53903816631</v>
       </c>
       <c r="D762">
-        <v>1948.94807633262</v>
+        <v>2007.31192366738</v>
       </c>
       <c r="E762" t="s">
         <v>1101</v>
@@ -23806,10 +23791,10 @@
         <v>1973.43</v>
       </c>
       <c r="C763">
-        <v>1987.986293980405</v>
+        <v>1958.873706019595</v>
       </c>
       <c r="D763">
-        <v>1944.31741203919</v>
+        <v>2002.54258796081</v>
       </c>
       <c r="E763" t="s">
         <v>1101</v>
@@ -23832,10 +23817,10 @@
         <v>1978.61</v>
       </c>
       <c r="C764">
-        <v>1993.204502380408</v>
+        <v>1964.015497619592</v>
       </c>
       <c r="D764">
-        <v>1949.420995239183</v>
+        <v>2007.799004760817</v>
       </c>
       <c r="E764" t="s">
         <v>1101</v>
@@ -23864,16 +23849,16 @@
         <v>1978.868417315221</v>
       </c>
       <c r="E765" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="F765" t="s">
-        <v>774</v>
+        <v>1103</v>
       </c>
       <c r="G765" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="H765" t="s">
-        <v>1175</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -23936,22 +23921,22 @@
         <v>1931.44</v>
       </c>
       <c r="C768">
-        <v>1957.48</v>
+        <v>1917.19343009607</v>
       </c>
       <c r="D768">
-        <v>1879.36</v>
+        <v>1959.933139807861</v>
       </c>
       <c r="E768" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F768" t="s">
-        <v>780</v>
+        <v>1103</v>
       </c>
       <c r="G768" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H768" t="s">
-        <v>1176</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -23968,16 +23953,16 @@
         <v>1869.921356550483</v>
       </c>
       <c r="E769" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="F769" t="s">
-        <v>1103</v>
+        <v>780</v>
       </c>
       <c r="G769" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="H769" t="s">
-        <v>1103</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -24040,22 +24025,22 @@
         <v>1894.55</v>
       </c>
       <c r="C772">
-        <v>1885.86</v>
+        <v>1905.16</v>
       </c>
       <c r="D772">
-        <v>1911.93</v>
+        <v>1873.33</v>
       </c>
       <c r="E772" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="F772" t="s">
-        <v>780</v>
+        <v>1103</v>
       </c>
       <c r="G772" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="H772" t="s">
-        <v>1176</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -24066,10 +24051,10 @@
         <v>1896.75</v>
       </c>
       <c r="C773">
-        <v>1882.759308357867</v>
+        <v>1910.740691642133</v>
       </c>
       <c r="D773">
-        <v>1924.731383284265</v>
+        <v>1868.768616715735</v>
       </c>
       <c r="E773" t="s">
         <v>1101</v>
@@ -24092,10 +24077,10 @@
         <v>1862.83</v>
       </c>
       <c r="C774">
-        <v>1849.089506992638</v>
+        <v>1876.570493007362</v>
       </c>
       <c r="D774">
-        <v>1890.310986014724</v>
+        <v>1835.349013985276</v>
       </c>
       <c r="E774" t="s">
         <v>1101</v>
@@ -24124,16 +24109,16 @@
         <v>1877.92</v>
       </c>
       <c r="E775" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F775" t="s">
-        <v>1103</v>
+        <v>782</v>
       </c>
       <c r="G775" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="H775" t="s">
-        <v>1103</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -24170,22 +24155,22 @@
         <v>1877.07</v>
       </c>
       <c r="C777">
-        <v>1863.224470773324</v>
+        <v>1890.915529226676</v>
       </c>
       <c r="D777">
-        <v>1904.761058453352</v>
+        <v>1849.378941546648</v>
       </c>
       <c r="E777" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="F777" t="s">
-        <v>1103</v>
+        <v>786</v>
       </c>
       <c r="G777" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="H777" t="s">
-        <v>1103</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -24196,10 +24181,10 @@
         <v>1883.64</v>
       </c>
       <c r="C778">
-        <v>1869.746009540115</v>
+        <v>1897.533990459885</v>
       </c>
       <c r="D778">
-        <v>1911.427980919769</v>
+        <v>1855.852019080231</v>
       </c>
       <c r="E778" t="s">
         <v>1101</v>
@@ -24222,10 +24207,10 @@
         <v>1853.76</v>
       </c>
       <c r="C779">
-        <v>1840.086408573339</v>
+        <v>1883.64</v>
       </c>
       <c r="D779">
-        <v>1881.107182853322</v>
+        <v>1794</v>
       </c>
       <c r="E779" t="s">
         <v>1101</v>
@@ -24254,16 +24239,16 @@
         <v>1865.469850249442</v>
       </c>
       <c r="E780" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F780" t="s">
-        <v>1103</v>
+        <v>788</v>
       </c>
       <c r="G780" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="H780" t="s">
-        <v>1103</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -24508,22 +24493,22 @@
         <v>1866.38</v>
       </c>
       <c r="C790">
-        <v>1880.1466783008</v>
+        <v>1852.6133216992</v>
       </c>
       <c r="D790">
-        <v>1838.846643398399</v>
+        <v>1893.913356601601</v>
       </c>
       <c r="E790" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F790" t="s">
-        <v>801</v>
+        <v>1103</v>
       </c>
       <c r="G790" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H790" t="s">
-        <v>1177</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -24534,10 +24519,10 @@
         <v>1853.19</v>
       </c>
       <c r="C791">
-        <v>1866.38</v>
+        <v>1814.98</v>
       </c>
       <c r="D791">
-        <v>1826.81</v>
+        <v>1929.61</v>
       </c>
       <c r="E791" t="s">
         <v>1101</v>
@@ -24566,16 +24551,16 @@
         <v>1877.981745837102</v>
       </c>
       <c r="E792" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="F792" t="s">
-        <v>810</v>
+        <v>1103</v>
       </c>
       <c r="G792" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="H792" t="s">
-        <v>1178</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -24638,22 +24623,22 @@
         <v>1837.47</v>
       </c>
       <c r="C795">
-        <v>1851.023434122404</v>
+        <v>1823.916565877596</v>
       </c>
       <c r="D795">
-        <v>1810.363131755193</v>
+        <v>1864.576868244807</v>
       </c>
       <c r="E795" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F795" t="s">
-        <v>803</v>
+        <v>1103</v>
       </c>
       <c r="G795" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="H795" t="s">
-        <v>1179</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -24664,10 +24649,10 @@
         <v>1846.33</v>
       </c>
       <c r="C796">
-        <v>1855.34</v>
+        <v>1837.47</v>
       </c>
       <c r="D796">
-        <v>1828.31</v>
+        <v>1864.05</v>
       </c>
       <c r="E796" t="s">
         <v>1101</v>
@@ -24690,10 +24675,10 @@
         <v>1868.58</v>
       </c>
       <c r="C797">
-        <v>1882.362905806593</v>
+        <v>1854.797094193407</v>
       </c>
       <c r="D797">
-        <v>1841.014188386813</v>
+        <v>1896.145811613187</v>
       </c>
       <c r="E797" t="s">
         <v>1101</v>
@@ -24716,10 +24701,10 @@
         <v>1850.9</v>
       </c>
       <c r="C798">
-        <v>1868.58</v>
+        <v>1837.47</v>
       </c>
       <c r="D798">
-        <v>1815.54</v>
+        <v>1877.76</v>
       </c>
       <c r="E798" t="s">
         <v>1101</v>
@@ -24742,10 +24727,10 @@
         <v>1841.57</v>
       </c>
       <c r="C799">
-        <v>1855.15367629229</v>
+        <v>1827.98632370771</v>
       </c>
       <c r="D799">
-        <v>1814.402647415419</v>
+        <v>1868.737352584581</v>
       </c>
       <c r="E799" t="s">
         <v>1101</v>
@@ -24768,10 +24753,10 @@
         <v>1852.35</v>
       </c>
       <c r="C800">
-        <v>1868.58</v>
+        <v>1841.57</v>
       </c>
       <c r="D800">
-        <v>1819.89</v>
+        <v>1873.91</v>
       </c>
       <c r="E800" t="s">
         <v>1101</v>
@@ -24794,10 +24779,10 @@
         <v>1853.16</v>
       </c>
       <c r="C801">
-        <v>1866.829165743263</v>
+        <v>1839.490834256737</v>
       </c>
       <c r="D801">
-        <v>1825.821668513474</v>
+        <v>1880.498331486526</v>
       </c>
       <c r="E801" t="s">
         <v>1101</v>
@@ -24820,10 +24805,10 @@
         <v>1847.94</v>
       </c>
       <c r="C802">
-        <v>1861.5706622977</v>
+        <v>1834.3093377023</v>
       </c>
       <c r="D802">
-        <v>1820.6786754046</v>
+        <v>1875.2013245954</v>
       </c>
       <c r="E802" t="s">
         <v>1101</v>
@@ -24846,10 +24831,10 @@
         <v>1871.39</v>
       </c>
       <c r="C803">
-        <v>1885.193632757174</v>
+        <v>1857.586367242826</v>
       </c>
       <c r="D803">
-        <v>1843.782734485652</v>
+        <v>1898.997265514349</v>
       </c>
       <c r="E803" t="s">
         <v>1101</v>
@@ -24872,10 +24857,10 @@
         <v>1820.1</v>
       </c>
       <c r="C804">
-        <v>1871.39</v>
+        <v>1806.67468941197</v>
       </c>
       <c r="D804">
-        <v>1717.52</v>
+        <v>1846.950621176059</v>
       </c>
       <c r="E804" t="s">
         <v>1101</v>
@@ -24904,16 +24889,16 @@
         <v>1834.895364113496</v>
       </c>
       <c r="E805" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="F805" t="s">
-        <v>813</v>
+        <v>1103</v>
       </c>
       <c r="G805" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H805" t="s">
-        <v>1180</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -24950,22 +24935,22 @@
         <v>1856.68</v>
       </c>
       <c r="C807">
-        <v>1870.375129752532</v>
+        <v>1842.984870247468</v>
       </c>
       <c r="D807">
-        <v>1829.289740494936</v>
+        <v>1884.070259505064</v>
       </c>
       <c r="E807" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F807" t="s">
-        <v>818</v>
+        <v>1103</v>
       </c>
       <c r="G807" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H807" t="s">
-        <v>1181</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -24976,10 +24961,10 @@
         <v>1840.12</v>
       </c>
       <c r="C808">
-        <v>1856.68</v>
+        <v>1808.22</v>
       </c>
       <c r="D808">
-        <v>1807</v>
+        <v>1903.92</v>
       </c>
       <c r="E808" t="s">
         <v>1101</v>
@@ -25002,10 +24987,10 @@
         <v>1838.21</v>
       </c>
       <c r="C809">
-        <v>1856.68</v>
+        <v>1808.22</v>
       </c>
       <c r="D809">
-        <v>1801.27</v>
+        <v>1898.19</v>
       </c>
       <c r="E809" t="s">
         <v>1101</v>
@@ -25034,16 +25019,16 @@
         <v>1860.091663176076</v>
       </c>
       <c r="E810" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="F810" t="s">
-        <v>822</v>
+        <v>1103</v>
       </c>
       <c r="G810" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="H810" t="s">
-        <v>1182</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -25756,22 +25741,22 @@
         <v>1766.18</v>
       </c>
       <c r="C838">
-        <v>1779.207589173324</v>
+        <v>1717.3</v>
       </c>
       <c r="D838">
-        <v>1740.124821653353</v>
+        <v>1863.94</v>
       </c>
       <c r="E838" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F838" t="s">
-        <v>848</v>
+        <v>1103</v>
       </c>
       <c r="G838" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="H838" t="s">
-        <v>1183</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -25782,10 +25767,10 @@
         <v>1772.15</v>
       </c>
       <c r="C839">
-        <v>1785.221624723134</v>
+        <v>1759.078375276866</v>
       </c>
       <c r="D839">
-        <v>1746.006750553731</v>
+        <v>1798.293249446269</v>
       </c>
       <c r="E839" t="s">
         <v>1101</v>
@@ -25808,10 +25793,10 @@
         <v>1761.18</v>
       </c>
       <c r="C840">
-        <v>1774.17070847834</v>
+        <v>1748.18929152166</v>
       </c>
       <c r="D840">
-        <v>1735.198583043321</v>
+        <v>1787.161416956679</v>
       </c>
       <c r="E840" t="s">
         <v>1101</v>
@@ -25834,10 +25819,10 @@
         <v>1765.53</v>
       </c>
       <c r="C841">
-        <v>1772.15</v>
+        <v>1761.18</v>
       </c>
       <c r="D841">
-        <v>1752.29</v>
+        <v>1774.23</v>
       </c>
       <c r="E841" t="s">
         <v>1101</v>
@@ -25860,10 +25845,10 @@
         <v>1791.16</v>
       </c>
       <c r="C842">
-        <v>1804.371845125463</v>
+        <v>1777.948154874537</v>
       </c>
       <c r="D842">
-        <v>1764.736309749074</v>
+        <v>1817.583690250926</v>
       </c>
       <c r="E842" t="s">
         <v>1101</v>
@@ -25886,10 +25871,10 @@
         <v>1775.59</v>
       </c>
       <c r="C843">
-        <v>1788.686998641283</v>
+        <v>1762.493001358717</v>
       </c>
       <c r="D843">
-        <v>1749.396002717433</v>
+        <v>1801.783997282567</v>
       </c>
       <c r="E843" t="s">
         <v>1101</v>
@@ -25912,10 +25897,10 @@
         <v>1788.99</v>
       </c>
       <c r="C844">
-        <v>1791.16</v>
+        <v>1775.59</v>
       </c>
       <c r="D844">
-        <v>1784.65</v>
+        <v>1815.79</v>
       </c>
       <c r="E844" t="s">
         <v>1101</v>
@@ -25938,10 +25923,10 @@
         <v>1794.36</v>
       </c>
       <c r="C845">
-        <v>1807.595448770253</v>
+        <v>1781.124551229747</v>
       </c>
       <c r="D845">
-        <v>1767.889102459494</v>
+        <v>1820.830897540505</v>
       </c>
       <c r="E845" t="s">
         <v>1101</v>
@@ -25964,10 +25949,10 @@
         <v>1792.19</v>
       </c>
       <c r="C846">
-        <v>1794.36</v>
+        <v>1775.59</v>
       </c>
       <c r="D846">
-        <v>1787.85</v>
+        <v>1825.39</v>
       </c>
       <c r="E846" t="s">
         <v>1101</v>
@@ -25990,10 +25975,10 @@
         <v>1789.47</v>
       </c>
       <c r="C847">
-        <v>1802.669379450558</v>
+        <v>1776.270620549442</v>
       </c>
       <c r="D847">
-        <v>1763.071241098883</v>
+        <v>1815.868758901117</v>
       </c>
       <c r="E847" t="s">
         <v>1101</v>
@@ -26016,10 +26001,10 @@
         <v>1802.03</v>
       </c>
       <c r="C848">
-        <v>1815.322023756358</v>
+        <v>1788.737976243642</v>
       </c>
       <c r="D848">
-        <v>1775.445952487284</v>
+        <v>1828.614047512716</v>
       </c>
       <c r="E848" t="s">
         <v>1101</v>
@@ -26042,10 +26027,10 @@
         <v>1779.44</v>
       </c>
       <c r="C849">
-        <v>1802.03</v>
+        <v>1766.314603223579</v>
       </c>
       <c r="D849">
-        <v>1734.26</v>
+        <v>1805.690793552842</v>
       </c>
       <c r="E849" t="s">
         <v>1101</v>
@@ -26068,10 +26053,10 @@
         <v>1775.53</v>
       </c>
       <c r="C850">
-        <v>1802.03</v>
+        <v>1762.433443927056</v>
       </c>
       <c r="D850">
-        <v>1722.53</v>
+        <v>1801.723112145887</v>
       </c>
       <c r="E850" t="s">
         <v>1101</v>
@@ -26094,10 +26079,10 @@
         <v>1762.02</v>
       </c>
       <c r="C851">
-        <v>1802.03</v>
+        <v>1749.023095564903</v>
       </c>
       <c r="D851">
-        <v>1682</v>
+        <v>1788.013808870194</v>
       </c>
       <c r="E851" t="s">
         <v>1101</v>
@@ -26120,10 +26105,10 @@
         <v>1758.39</v>
       </c>
       <c r="C852">
-        <v>1802.03</v>
+        <v>1745.419870949461</v>
       </c>
       <c r="D852">
-        <v>1671.11</v>
+        <v>1784.330258101077</v>
       </c>
       <c r="E852" t="s">
         <v>1101</v>
@@ -26146,22 +26131,22 @@
         <v>1747.32</v>
       </c>
       <c r="C853">
-        <v>1734.431524808155</v>
+        <v>1802.03</v>
       </c>
       <c r="D853">
-        <v>1773.096950383689</v>
+        <v>1637.9</v>
       </c>
       <c r="E853" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="F853" t="s">
-        <v>866</v>
+        <v>885</v>
       </c>
       <c r="G853" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="H853" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -26178,16 +26163,16 @@
         <v>1761.741872392941</v>
       </c>
       <c r="E854" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F854" t="s">
-        <v>1103</v>
+        <v>867</v>
       </c>
       <c r="G854" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="H854" t="s">
-        <v>1103</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -26250,22 +26235,22 @@
         <v>1758.66</v>
       </c>
       <c r="C857">
-        <v>1745.687879391932</v>
+        <v>1771.632120608068</v>
       </c>
       <c r="D857">
-        <v>1784.604241216136</v>
+        <v>1732.715758783864</v>
       </c>
       <c r="E857" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="F857" t="s">
-        <v>1103</v>
+        <v>866</v>
       </c>
       <c r="G857" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="H857" t="s">
-        <v>1103</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -26282,16 +26267,16 @@
         <v>1741.56</v>
       </c>
       <c r="E858" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F858" t="s">
-        <v>1103</v>
+        <v>866</v>
       </c>
       <c r="G858" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="H858" t="s">
-        <v>1103</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -26380,22 +26365,22 @@
         <v>1697.56</v>
       </c>
       <c r="C862">
-        <v>1685.038561484635</v>
+        <v>1710.081438515365</v>
       </c>
       <c r="D862">
-        <v>1722.60287703073</v>
+        <v>1672.51712296927</v>
       </c>
       <c r="E862" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="F862" t="s">
-        <v>1103</v>
+        <v>869</v>
       </c>
       <c r="G862" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="H862" t="s">
-        <v>1103</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -26406,10 +26391,10 @@
         <v>1712.54</v>
       </c>
       <c r="C863">
-        <v>1699.908066922463</v>
+        <v>1725.171933077537</v>
       </c>
       <c r="D863">
-        <v>1737.803866155073</v>
+        <v>1687.276133844927</v>
       </c>
       <c r="E863" t="s">
         <v>1101</v>
@@ -26438,16 +26423,16 @@
         <v>1734.49</v>
       </c>
       <c r="E864" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F864" t="s">
-        <v>1103</v>
+        <v>877</v>
       </c>
       <c r="G864" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="H864" t="s">
-        <v>1103</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -26484,22 +26469,22 @@
         <v>1718.29</v>
       </c>
       <c r="C866">
-        <v>1705.615654123232</v>
+        <v>1730.964345876768</v>
       </c>
       <c r="D866">
-        <v>1743.638691753536</v>
+        <v>1692.941308246464</v>
       </c>
       <c r="E866" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="F866" t="s">
-        <v>1103</v>
+        <v>878</v>
       </c>
       <c r="G866" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="H866" t="s">
-        <v>1103</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -26510,10 +26495,10 @@
         <v>1708.51</v>
       </c>
       <c r="C867">
-        <v>1695.90779276262</v>
+        <v>1721.11220723738</v>
       </c>
       <c r="D867">
-        <v>1733.714414474759</v>
+        <v>1683.305585525241</v>
       </c>
       <c r="E867" t="s">
         <v>1101</v>
@@ -26536,10 +26521,10 @@
         <v>1717.17</v>
       </c>
       <c r="C868">
-        <v>1708.51</v>
+        <v>1718.29</v>
       </c>
       <c r="D868">
-        <v>1734.49</v>
+        <v>1714.93</v>
       </c>
       <c r="E868" t="s">
         <v>1101</v>
@@ -26562,10 +26547,10 @@
         <v>1724.66</v>
       </c>
       <c r="C869">
-        <v>1711.938668117823</v>
+        <v>1737.381331882178</v>
       </c>
       <c r="D869">
-        <v>1750.102663764355</v>
+        <v>1699.217336235645</v>
       </c>
       <c r="E869" t="s">
         <v>1101</v>
@@ -26588,10 +26573,10 @@
         <v>1702.34</v>
       </c>
       <c r="C870">
-        <v>1689.78330354023</v>
+        <v>1724.66</v>
       </c>
       <c r="D870">
-        <v>1727.453392919539</v>
+        <v>1657.7</v>
       </c>
       <c r="E870" t="s">
         <v>1101</v>
@@ -26620,16 +26605,16 @@
         <v>1722.450664189031</v>
       </c>
       <c r="E871" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F871" t="s">
-        <v>1103</v>
+        <v>878</v>
       </c>
       <c r="G871" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="H871" t="s">
-        <v>1103</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -26900,22 +26885,22 @@
         <v>1660.57</v>
       </c>
       <c r="C882">
-        <v>1673.75</v>
+        <v>1622.45</v>
       </c>
       <c r="D882">
-        <v>1634.21</v>
+        <v>1736.81</v>
       </c>
       <c r="E882" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F882" t="s">
-        <v>890</v>
+        <v>1103</v>
       </c>
       <c r="G882" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="H882" t="s">
-        <v>1185</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -26926,10 +26911,10 @@
         <v>1660.85</v>
       </c>
       <c r="C883">
-        <v>1673.75</v>
+        <v>1622.45</v>
       </c>
       <c r="D883">
-        <v>1635.05</v>
+        <v>1737.65</v>
       </c>
       <c r="E883" t="s">
         <v>1101</v>
@@ -26952,10 +26937,10 @@
         <v>1699.64</v>
       </c>
       <c r="C884">
-        <v>1712.176780884478</v>
+        <v>1622.45</v>
       </c>
       <c r="D884">
-        <v>1674.566438231044</v>
+        <v>1854.02</v>
       </c>
       <c r="E884" t="s">
         <v>1101</v>
@@ -26978,10 +26963,10 @@
         <v>1726.38</v>
       </c>
       <c r="C885">
-        <v>1739.114018841252</v>
+        <v>1713.645981158748</v>
       </c>
       <c r="D885">
-        <v>1700.911962317496</v>
+        <v>1751.848037682504</v>
       </c>
       <c r="E885" t="s">
         <v>1101</v>
@@ -27004,10 +26989,10 @@
         <v>1716.28</v>
       </c>
       <c r="C886">
-        <v>1726.38</v>
+        <v>1622.45</v>
       </c>
       <c r="D886">
-        <v>1696.08</v>
+        <v>1903.94</v>
       </c>
       <c r="E886" t="s">
         <v>1101</v>
@@ -27030,10 +27015,10 @@
         <v>1712.49</v>
       </c>
       <c r="C887">
-        <v>1726.38</v>
+        <v>1622.45</v>
       </c>
       <c r="D887">
-        <v>1684.71</v>
+        <v>1892.57</v>
       </c>
       <c r="E887" t="s">
         <v>1101</v>
@@ -27056,10 +27041,10 @@
         <v>1694.93</v>
       </c>
       <c r="C888">
-        <v>1726.38</v>
+        <v>1622.45</v>
       </c>
       <c r="D888">
-        <v>1632.03</v>
+        <v>1839.89</v>
       </c>
       <c r="E888" t="s">
         <v>1101</v>
@@ -27082,10 +27067,10 @@
         <v>1668.06</v>
       </c>
       <c r="C889">
-        <v>1726.38</v>
+        <v>1622.45</v>
       </c>
       <c r="D889">
-        <v>1551.42</v>
+        <v>1759.28</v>
       </c>
       <c r="E889" t="s">
         <v>1101</v>
@@ -27108,10 +27093,10 @@
         <v>1666.18</v>
       </c>
       <c r="C890">
-        <v>1678.469975273646</v>
+        <v>1653.890024726354</v>
       </c>
       <c r="D890">
-        <v>1641.600049452708</v>
+        <v>1690.759950547292</v>
       </c>
       <c r="E890" t="s">
         <v>1101</v>
@@ -27134,10 +27119,10 @@
         <v>1673.17</v>
       </c>
       <c r="C891">
-        <v>1685.511534485234</v>
+        <v>1660.828465514767</v>
       </c>
       <c r="D891">
-        <v>1648.486931029533</v>
+        <v>1697.853068970467</v>
       </c>
       <c r="E891" t="s">
         <v>1101</v>
@@ -27160,10 +27145,10 @@
         <v>1666.22</v>
       </c>
       <c r="C892">
-        <v>1673.17</v>
+        <v>1666.18</v>
       </c>
       <c r="D892">
-        <v>1652.32</v>
+        <v>1666.3</v>
       </c>
       <c r="E892" t="s">
         <v>1101</v>
@@ -27192,16 +27177,16 @@
         <v>1668.516580613674</v>
       </c>
       <c r="E893" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="F893" t="s">
-        <v>902</v>
+        <v>1103</v>
       </c>
       <c r="G893" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="H893" t="s">
-        <v>1186</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -27212,22 +27197,22 @@
         <v>1650.58</v>
       </c>
       <c r="C894">
-        <v>1644.26</v>
+        <v>1673.17</v>
       </c>
       <c r="D894">
-        <v>1663.22</v>
+        <v>1605.4</v>
       </c>
       <c r="E894" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="F894" t="s">
-        <v>1103</v>
+        <v>914</v>
       </c>
       <c r="G894" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="H894" t="s">
-        <v>1103</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -27244,16 +27229,16 @@
         <v>1627.579974368556</v>
       </c>
       <c r="E895" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F895" t="s">
-        <v>907</v>
+        <v>1103</v>
       </c>
       <c r="G895" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="H895" t="s">
-        <v>1187</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -27654,22 +27639,22 @@
         <v>1706.98</v>
       </c>
       <c r="C911">
-        <v>1719.570921744714</v>
+        <v>1694.389078255286</v>
       </c>
       <c r="D911">
-        <v>1681.798156510571</v>
+        <v>1732.161843489429</v>
       </c>
       <c r="E911" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F911" t="s">
-        <v>1103</v>
+        <v>918</v>
       </c>
       <c r="G911" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="H911" t="s">
-        <v>1103</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -27680,10 +27665,10 @@
         <v>1755.46</v>
       </c>
       <c r="C912">
-        <v>1768.408516963278</v>
+        <v>1706.98</v>
       </c>
       <c r="D912">
-        <v>1729.562966073444</v>
+        <v>1852.42</v>
       </c>
       <c r="E912" t="s">
         <v>1101</v>
@@ -27712,16 +27697,16 @@
         <v>1898.86</v>
       </c>
       <c r="E913" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="F913" t="s">
-        <v>962</v>
+        <v>1103</v>
       </c>
       <c r="G913" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H913" t="s">
-        <v>1188</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -27784,22 +27769,22 @@
         <v>1773.78</v>
       </c>
       <c r="C916">
-        <v>1778.69</v>
+        <v>1706.98</v>
       </c>
       <c r="D916">
-        <v>1763.96</v>
+        <v>1907.38</v>
       </c>
       <c r="E916" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F916" t="s">
-        <v>923</v>
+        <v>1103</v>
       </c>
       <c r="G916" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H916" t="s">
-        <v>1189</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -27810,10 +27795,10 @@
         <v>1760.25</v>
       </c>
       <c r="C917">
-        <v>1778.69</v>
+        <v>1706.98</v>
       </c>
       <c r="D917">
-        <v>1723.37</v>
+        <v>1866.79</v>
       </c>
       <c r="E917" t="s">
         <v>1101</v>
@@ -27836,10 +27821,10 @@
         <v>1750.79</v>
       </c>
       <c r="C918">
-        <v>1778.69</v>
+        <v>1706.98</v>
       </c>
       <c r="D918">
-        <v>1694.99</v>
+        <v>1838.41</v>
       </c>
       <c r="E918" t="s">
         <v>1101</v>
@@ -27862,10 +27847,10 @@
         <v>1737.77</v>
       </c>
       <c r="C919">
-        <v>1750.588033064425</v>
+        <v>1724.951966935575</v>
       </c>
       <c r="D919">
-        <v>1712.13393387115</v>
+        <v>1763.40606612885</v>
       </c>
       <c r="E919" t="s">
         <v>1101</v>
@@ -27888,10 +27873,10 @@
         <v>1739.97</v>
       </c>
       <c r="C920">
-        <v>1778.69</v>
+        <v>1737.77</v>
       </c>
       <c r="D920">
-        <v>1662.53</v>
+        <v>1744.37</v>
       </c>
       <c r="E920" t="s">
         <v>1101</v>
@@ -27914,10 +27899,10 @@
         <v>1749.46</v>
       </c>
       <c r="C921">
-        <v>1778.69</v>
+        <v>1737.77</v>
       </c>
       <c r="D921">
-        <v>1691</v>
+        <v>1772.84</v>
       </c>
       <c r="E921" t="s">
         <v>1101</v>
@@ -27946,16 +27931,16 @@
         <v>1729.267391756842</v>
       </c>
       <c r="E922" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="F922" t="s">
-        <v>1103</v>
+        <v>932</v>
       </c>
       <c r="G922" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="H922" t="s">
-        <v>1103</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -28018,22 +28003,22 @@
         <v>1749.72</v>
       </c>
       <c r="C925">
-        <v>1741.5</v>
+        <v>1755.16</v>
       </c>
       <c r="D925">
-        <v>1766.16</v>
+        <v>1738.84</v>
       </c>
       <c r="E925" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="F925" t="s">
-        <v>932</v>
+        <v>1103</v>
       </c>
       <c r="G925" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H925" t="s">
-        <v>1190</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -28044,10 +28029,10 @@
         <v>1768.53</v>
       </c>
       <c r="C926">
-        <v>1741.5</v>
+        <v>1781.574923099966</v>
       </c>
       <c r="D926">
-        <v>1822.59</v>
+        <v>1742.440153800068</v>
       </c>
       <c r="E926" t="s">
         <v>1101</v>
@@ -28076,16 +28061,16 @@
         <v>1776.29326552821</v>
       </c>
       <c r="E927" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F927" t="s">
-        <v>935</v>
+        <v>1103</v>
       </c>
       <c r="G927" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H927" t="s">
-        <v>1191</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -28408,22 +28393,22 @@
         <v>1817.71</v>
       </c>
       <c r="C940">
-        <v>1804.302318384173</v>
+        <v>1831.117681615827</v>
       </c>
       <c r="D940">
-        <v>1844.525363231655</v>
+        <v>1790.894636768345</v>
       </c>
       <c r="E940" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="F940" t="s">
-        <v>948</v>
+        <v>1103</v>
       </c>
       <c r="G940" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="H940" t="s">
-        <v>1192</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -28434,10 +28419,10 @@
         <v>1814.22</v>
       </c>
       <c r="C941">
-        <v>1787.66</v>
+        <v>1817.71</v>
       </c>
       <c r="D941">
-        <v>1867.34</v>
+        <v>1807.24</v>
       </c>
       <c r="E941" t="s">
         <v>1101</v>
@@ -28460,10 +28445,10 @@
         <v>1792.45</v>
       </c>
       <c r="C942">
-        <v>1779.228639655231</v>
+        <v>1805.671360344769</v>
       </c>
       <c r="D942">
-        <v>1818.892720689538</v>
+        <v>1766.007279310463</v>
       </c>
       <c r="E942" t="s">
         <v>1101</v>
@@ -28492,16 +28477,16 @@
         <v>1759.51</v>
       </c>
       <c r="E943" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F943" t="s">
-        <v>953</v>
+        <v>1103</v>
       </c>
       <c r="G943" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="H943" t="s">
-        <v>1193</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -28512,22 +28497,22 @@
         <v>1813.53</v>
       </c>
       <c r="C944">
-        <v>1800.153150645179</v>
+        <v>1826.906849354821</v>
       </c>
       <c r="D944">
-        <v>1840.283698709642</v>
+        <v>1786.776301290358</v>
       </c>
       <c r="E944" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="F944" t="s">
-        <v>955</v>
+        <v>1103</v>
       </c>
       <c r="G944" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H944" t="s">
-        <v>1194</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -28544,16 +28529,16 @@
         <v>1777.652907384579</v>
       </c>
       <c r="E945" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F945" t="s">
-        <v>953</v>
+        <v>1103</v>
       </c>
       <c r="G945" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="H945" t="s">
-        <v>1193</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -28642,22 +28627,22 @@
         <v>1854.63</v>
       </c>
       <c r="C949">
-        <v>1868.310008667588</v>
+        <v>1840.949991332412</v>
       </c>
       <c r="D949">
-        <v>1827.269982664824</v>
+        <v>1881.990017335177</v>
       </c>
       <c r="E949" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F949" t="s">
-        <v>1103</v>
+        <v>956</v>
       </c>
       <c r="G949" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="H949" t="s">
-        <v>1103</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="950" spans="1:8">
@@ -28668,10 +28653,10 @@
         <v>1832.98</v>
       </c>
       <c r="C950">
-        <v>1846.500315258308</v>
+        <v>1819.459684741692</v>
       </c>
       <c r="D950">
-        <v>1805.939369483384</v>
+        <v>1860.020630516616</v>
       </c>
       <c r="E950" t="s">
         <v>1101</v>
@@ -28694,10 +28679,10 @@
         <v>1865.9</v>
       </c>
       <c r="C951">
-        <v>1879.663137754082</v>
+        <v>1832.98</v>
       </c>
       <c r="D951">
-        <v>1838.373724491836</v>
+        <v>1931.74</v>
       </c>
       <c r="E951" t="s">
         <v>1101</v>
@@ -28720,10 +28705,10 @@
         <v>1871.74</v>
       </c>
       <c r="C952">
-        <v>1885.546214405823</v>
+        <v>1832.98</v>
       </c>
       <c r="D952">
-        <v>1844.127571188354</v>
+        <v>1949.26</v>
       </c>
       <c r="E952" t="s">
         <v>1101</v>
@@ -28746,10 +28731,10 @@
         <v>1876.91</v>
       </c>
       <c r="C953">
-        <v>1890.754349044437</v>
+        <v>1863.065650955564</v>
       </c>
       <c r="D953">
-        <v>1849.221301911127</v>
+        <v>1904.598698088873</v>
       </c>
       <c r="E953" t="s">
         <v>1101</v>
@@ -28772,10 +28757,10 @@
         <v>1875.64</v>
       </c>
       <c r="C954">
-        <v>1889.474981347911</v>
+        <v>1861.80501865209</v>
       </c>
       <c r="D954">
-        <v>1847.970037304179</v>
+        <v>1903.309962695821</v>
       </c>
       <c r="E954" t="s">
         <v>1101</v>
@@ -28798,10 +28783,10 @@
         <v>1896.79</v>
       </c>
       <c r="C955">
-        <v>1910.780986687692</v>
+        <v>1875.64</v>
       </c>
       <c r="D955">
-        <v>1868.808026624615</v>
+        <v>1939.09</v>
       </c>
       <c r="E955" t="s">
         <v>1101</v>
@@ -28824,10 +28809,10 @@
         <v>1920.27</v>
       </c>
       <c r="C956">
-        <v>1934.434178431336</v>
+        <v>1906.105821568663</v>
       </c>
       <c r="D956">
-        <v>1891.941643137327</v>
+        <v>1948.598356862673</v>
       </c>
       <c r="E956" t="s">
         <v>1101</v>
@@ -28850,10 +28835,10 @@
         <v>1915.52</v>
       </c>
       <c r="C957">
-        <v>1920.27</v>
+        <v>1875.64</v>
       </c>
       <c r="D957">
-        <v>1906.02</v>
+        <v>1995.28</v>
       </c>
       <c r="E957" t="s">
         <v>1101</v>
@@ -28876,10 +28861,10 @@
         <v>1908.59</v>
       </c>
       <c r="C958">
-        <v>1920.27</v>
+        <v>1875.64</v>
       </c>
       <c r="D958">
-        <v>1885.23</v>
+        <v>1974.49</v>
       </c>
       <c r="E958" t="s">
         <v>1101</v>
@@ -28902,10 +28887,10 @@
         <v>1904.28</v>
       </c>
       <c r="C959">
-        <v>1918.326233968778</v>
+        <v>1890.233766031222</v>
       </c>
       <c r="D959">
-        <v>1876.187532062444</v>
+        <v>1932.372467937556</v>
       </c>
       <c r="E959" t="s">
         <v>1101</v>
@@ -28928,10 +28913,10 @@
         <v>1932.14</v>
       </c>
       <c r="C960">
-        <v>1946.391733201228</v>
+        <v>1917.888266798772</v>
       </c>
       <c r="D960">
-        <v>1903.636533597544</v>
+        <v>1960.643466402457</v>
       </c>
       <c r="E960" t="s">
         <v>1101</v>
@@ -28954,10 +28939,10 @@
         <v>1925.9</v>
       </c>
       <c r="C961">
-        <v>1940.105706093889</v>
+        <v>1911.694293906112</v>
       </c>
       <c r="D961">
-        <v>1897.488587812223</v>
+        <v>1954.311412187777</v>
       </c>
       <c r="E961" t="s">
         <v>1101</v>
@@ -28980,10 +28965,10 @@
         <v>1930.86</v>
       </c>
       <c r="C962">
-        <v>1932.14</v>
+        <v>1925.9</v>
       </c>
       <c r="D962">
-        <v>1928.299999999999</v>
+        <v>1940.78</v>
       </c>
       <c r="E962" t="s">
         <v>1101</v>
@@ -29006,10 +28991,10 @@
         <v>1937.24</v>
       </c>
       <c r="C963">
-        <v>1951.529351510112</v>
+        <v>1925.9</v>
       </c>
       <c r="D963">
-        <v>1908.661296979776</v>
+        <v>1959.92</v>
       </c>
       <c r="E963" t="s">
         <v>1101</v>
@@ -29032,10 +29017,10 @@
         <v>1946.21</v>
       </c>
       <c r="C964">
-        <v>1960.565515476913</v>
+        <v>1931.854484523087</v>
       </c>
       <c r="D964">
-        <v>1917.498969046174</v>
+        <v>1974.921030953826</v>
       </c>
       <c r="E964" t="s">
         <v>1101</v>
@@ -29058,10 +29043,10 @@
         <v>1929.07</v>
       </c>
       <c r="C965">
-        <v>1946.21</v>
+        <v>1925.9</v>
       </c>
       <c r="D965">
-        <v>1894.79</v>
+        <v>1935.41</v>
       </c>
       <c r="E965" t="s">
         <v>1101</v>
@@ -29084,10 +29069,10 @@
         <v>1928.36</v>
       </c>
       <c r="C966">
-        <v>1946.21</v>
+        <v>1925.9</v>
       </c>
       <c r="D966">
-        <v>1892.66</v>
+        <v>1933.28</v>
       </c>
       <c r="E966" t="s">
         <v>1101</v>
@@ -29110,10 +29095,10 @@
         <v>1923.19</v>
       </c>
       <c r="C967">
-        <v>1937.375716757207</v>
+        <v>1909.004283242793</v>
       </c>
       <c r="D967">
-        <v>1894.818566485586</v>
+        <v>1951.561433514415</v>
       </c>
       <c r="E967" t="s">
         <v>1101</v>
@@ -29136,10 +29121,10 @@
         <v>1928.18</v>
       </c>
       <c r="C968">
-        <v>1946.21</v>
+        <v>1923.19</v>
       </c>
       <c r="D968">
-        <v>1892.12</v>
+        <v>1938.16</v>
       </c>
       <c r="E968" t="s">
         <v>1101</v>
@@ -29162,10 +29147,10 @@
         <v>1950.11</v>
       </c>
       <c r="C969">
-        <v>1964.494282419</v>
+        <v>1935.725717581</v>
       </c>
       <c r="D969">
-        <v>1921.341435161999</v>
+        <v>1978.878564838001</v>
       </c>
       <c r="E969" t="s">
         <v>1101</v>
@@ -29188,10 +29173,10 @@
         <v>1912.61</v>
       </c>
       <c r="C970">
-        <v>1950.11</v>
+        <v>1898.502322793379</v>
       </c>
       <c r="D970">
-        <v>1837.61</v>
+        <v>1940.825354413242</v>
       </c>
       <c r="E970" t="s">
         <v>1101</v>
@@ -29220,16 +29205,16 @@
         <v>1838.225937333535</v>
       </c>
       <c r="E971" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="F971" t="s">
-        <v>1103</v>
+        <v>985</v>
       </c>
       <c r="G971" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="H971" t="s">
-        <v>1103</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="972" spans="1:8">
@@ -29448,22 +29433,22 @@
         <v>1836.4</v>
       </c>
       <c r="C980">
-        <v>1835.88</v>
+        <v>1854.41</v>
       </c>
       <c r="D980">
-        <v>1837.44</v>
+        <v>1800.38</v>
       </c>
       <c r="E980" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="F980" t="s">
-        <v>987</v>
+        <v>1103</v>
       </c>
       <c r="G980" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H980" t="s">
-        <v>1195</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="981" spans="1:8">
@@ -29474,10 +29459,10 @@
         <v>1842.4</v>
       </c>
       <c r="C981">
-        <v>1828.810201512342</v>
+        <v>1855.989798487658</v>
       </c>
       <c r="D981">
-        <v>1869.579596975316</v>
+        <v>1815.220403024684</v>
       </c>
       <c r="E981" t="s">
         <v>1101</v>
@@ -29500,10 +29485,10 @@
         <v>1841.22</v>
       </c>
       <c r="C982">
-        <v>1835.88</v>
+        <v>1842.4</v>
       </c>
       <c r="D982">
-        <v>1851.9</v>
+        <v>1838.86</v>
       </c>
       <c r="E982" t="s">
         <v>1101</v>
@@ -29526,10 +29511,10 @@
         <v>1834.89</v>
       </c>
       <c r="C983">
-        <v>1821.355596316208</v>
+        <v>1842.4</v>
       </c>
       <c r="D983">
-        <v>1861.958807367584</v>
+        <v>1819.87</v>
       </c>
       <c r="E983" t="s">
         <v>1101</v>
@@ -29552,10 +29537,10 @@
         <v>1825.2</v>
       </c>
       <c r="C984">
-        <v>1811.737071103087</v>
+        <v>1842.4</v>
       </c>
       <c r="D984">
-        <v>1852.125857793826</v>
+        <v>1790.8</v>
       </c>
       <c r="E984" t="s">
         <v>1101</v>
@@ -29578,10 +29563,10 @@
         <v>1822.33</v>
       </c>
       <c r="C985">
-        <v>1808.888240622008</v>
+        <v>1842.4</v>
       </c>
       <c r="D985">
-        <v>1849.213518755985</v>
+        <v>1782.19</v>
       </c>
       <c r="E985" t="s">
         <v>1101</v>
@@ -29604,10 +29589,10 @@
         <v>1810.72</v>
       </c>
       <c r="C986">
-        <v>1797.36387759576</v>
+        <v>1824.07612240424</v>
       </c>
       <c r="D986">
-        <v>1837.43224480848</v>
+        <v>1784.00775519152</v>
       </c>
       <c r="E986" t="s">
         <v>1101</v>
@@ -29630,10 +29615,10 @@
         <v>1817.23</v>
       </c>
       <c r="C987">
-        <v>1810.72</v>
+        <v>1842.4</v>
       </c>
       <c r="D987">
-        <v>1830.25</v>
+        <v>1766.89</v>
       </c>
       <c r="E987" t="s">
         <v>1101</v>
@@ -29656,10 +29641,10 @@
         <v>1826.67</v>
       </c>
       <c r="C988">
-        <v>1810.72</v>
+        <v>1842.4</v>
       </c>
       <c r="D988">
-        <v>1858.57</v>
+        <v>1795.21</v>
       </c>
       <c r="E988" t="s">
         <v>1101</v>
@@ -29682,10 +29667,10 @@
         <v>1836.64</v>
       </c>
       <c r="C989">
-        <v>1823.092688072964</v>
+        <v>1850.187311927036</v>
       </c>
       <c r="D989">
-        <v>1863.734623854073</v>
+        <v>1809.545376145927</v>
       </c>
       <c r="E989" t="s">
         <v>1101</v>
@@ -29708,10 +29693,10 @@
         <v>1835.66</v>
       </c>
       <c r="C990">
-        <v>1822.119916689181</v>
+        <v>1849.20008331082</v>
       </c>
       <c r="D990">
-        <v>1862.740166621639</v>
+        <v>1808.579833378361</v>
       </c>
       <c r="E990" t="s">
         <v>1101</v>
@@ -29740,16 +29725,16 @@
         <v>1827.890688729687</v>
       </c>
       <c r="E991" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F991" t="s">
-        <v>999</v>
+        <v>1103</v>
       </c>
       <c r="G991" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H991" t="s">
-        <v>1196</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="992" spans="1:8">
@@ -29760,22 +29745,22 @@
         <v>1846.66</v>
       </c>
       <c r="C992">
-        <v>1855.26</v>
+        <v>1835.66</v>
       </c>
       <c r="D992">
-        <v>1829.46</v>
+        <v>1868.66</v>
       </c>
       <c r="E992" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F992" t="s">
-        <v>1103</v>
+        <v>999</v>
       </c>
       <c r="G992" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="H992" t="s">
-        <v>1103</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -29786,22 +29771,22 @@
         <v>1813.14</v>
       </c>
       <c r="C993">
-        <v>1799.766027339388</v>
+        <v>1826.513972660612</v>
       </c>
       <c r="D993">
-        <v>1839.887945321224</v>
+        <v>1786.392054678776</v>
       </c>
       <c r="E993" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="F993" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="G993" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="H993" t="s">
-        <v>1197</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="994" spans="1:8">
@@ -29812,10 +29797,10 @@
         <v>1813.73</v>
       </c>
       <c r="C994">
-        <v>1813.14</v>
+        <v>1855.26</v>
       </c>
       <c r="D994">
-        <v>1814.91</v>
+        <v>1730.67</v>
       </c>
       <c r="E994" t="s">
         <v>1101</v>
@@ -29838,10 +29823,10 @@
         <v>1830.79</v>
       </c>
       <c r="C995">
-        <v>1813.14</v>
+        <v>1855.26</v>
       </c>
       <c r="D995">
-        <v>1866.09</v>
+        <v>1781.85</v>
       </c>
       <c r="E995" t="s">
         <v>1101</v>
@@ -29864,22 +29849,22 @@
         <v>1867.09</v>
       </c>
       <c r="C996">
-        <v>1880.861915359488</v>
+        <v>1813.14</v>
       </c>
       <c r="D996">
-        <v>1839.546169281024</v>
+        <v>1974.99</v>
       </c>
       <c r="E996" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="F996" t="s">
-        <v>1003</v>
+        <v>1007</v>
       </c>
       <c r="G996" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="H996" t="s">
-        <v>1198</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="997" spans="1:8">
@@ -29890,10 +29875,10 @@
         <v>1913.5</v>
       </c>
       <c r="C997">
-        <v>1927.614241970329</v>
+        <v>1899.385758029671</v>
       </c>
       <c r="D997">
-        <v>1885.271516059343</v>
+        <v>1941.728483940657</v>
       </c>
       <c r="E997" t="s">
         <v>1101</v>
@@ -29916,10 +29901,10 @@
         <v>1903.93</v>
       </c>
       <c r="C998">
-        <v>1917.973652320129</v>
+        <v>1889.886347679871</v>
       </c>
       <c r="D998">
-        <v>1875.842695359742</v>
+        <v>1932.017304640259</v>
       </c>
       <c r="E998" t="s">
         <v>1101</v>
@@ -29942,10 +29927,10 @@
         <v>1918.16</v>
       </c>
       <c r="C999">
-        <v>1932.308614778053</v>
+        <v>1903.93</v>
       </c>
       <c r="D999">
-        <v>1889.862770443893</v>
+        <v>1946.62</v>
       </c>
       <c r="E999" t="s">
         <v>1101</v>
@@ -29968,10 +29953,10 @@
         <v>1919.34</v>
       </c>
       <c r="C1000">
-        <v>1933.49731862207</v>
+        <v>1903.93</v>
       </c>
       <c r="D1000">
-        <v>1891.025362755861</v>
+        <v>1950.16</v>
       </c>
       <c r="E1000" t="s">
         <v>1101</v>
@@ -30000,16 +29985,16 @@
         <v>2017.550774152335</v>
       </c>
       <c r="E1001" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="F1001" t="s">
-        <v>1009</v>
+        <v>1103</v>
       </c>
       <c r="G1001" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="H1001" t="s">
-        <v>1199</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="1002" spans="1:8">
@@ -30046,22 +30031,22 @@
         <v>1940.14</v>
       </c>
       <c r="C1003">
-        <v>1954.450742313203</v>
+        <v>1925.829257686798</v>
       </c>
       <c r="D1003">
-        <v>1911.518515373595</v>
+        <v>1968.761484626405</v>
       </c>
       <c r="E1003" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F1003" t="s">
-        <v>1010</v>
+        <v>1103</v>
       </c>
       <c r="G1003" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="H1003" t="s">
-        <v>1200</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="1004" spans="1:8">
@@ -30072,10 +30057,10 @@
         <v>1969.73</v>
       </c>
       <c r="C1004">
-        <v>1988.22</v>
+        <v>1940.14</v>
       </c>
       <c r="D1004">
-        <v>1932.75</v>
+        <v>2028.91</v>
       </c>
       <c r="E1004" t="s">
         <v>1101</v>
@@ -30098,10 +30083,10 @@
         <v>1993.92</v>
       </c>
       <c r="C1005">
-        <v>2008.627431068449</v>
+        <v>1979.212568931551</v>
       </c>
       <c r="D1005">
-        <v>1964.505137863102</v>
+        <v>2023.334862136898</v>
       </c>
       <c r="E1005" t="s">
         <v>1101</v>
@@ -30124,10 +30109,10 @@
         <v>1978.7</v>
       </c>
       <c r="C1006">
-        <v>1993.92</v>
+        <v>1940.14</v>
       </c>
       <c r="D1006">
-        <v>1948.26</v>
+        <v>2055.82</v>
       </c>
       <c r="E1006" t="s">
         <v>1101</v>
@@ -30150,10 +30135,10 @@
         <v>1956.45</v>
       </c>
       <c r="C1007">
-        <v>1970.88104714024</v>
+        <v>1942.01895285976</v>
       </c>
       <c r="D1007">
-        <v>1927.58790571952</v>
+        <v>1985.31209428048</v>
       </c>
       <c r="E1007" t="s">
         <v>1101</v>
@@ -30176,10 +30161,10 @@
         <v>1973.57</v>
       </c>
       <c r="C1008">
-        <v>1988.127326639865</v>
+        <v>1959.012673360135</v>
       </c>
       <c r="D1008">
-        <v>1944.455346720271</v>
+        <v>2002.684653279729</v>
       </c>
       <c r="E1008" t="s">
         <v>1101</v>
@@ -30202,10 +30187,10 @@
         <v>1964.42</v>
       </c>
       <c r="C1009">
-        <v>1978.909834968044</v>
+        <v>1949.930165031956</v>
       </c>
       <c r="D1009">
-        <v>1935.440330063911</v>
+        <v>1993.399669936089</v>
       </c>
       <c r="E1009" t="s">
         <v>1101</v>
@@ -30228,10 +30213,10 @@
         <v>1980.2</v>
       </c>
       <c r="C1010">
-        <v>1994.806230441413</v>
+        <v>1965.593769558587</v>
       </c>
       <c r="D1010">
-        <v>1950.987539117173</v>
+        <v>2009.412460882827</v>
       </c>
       <c r="E1010" t="s">
         <v>1101</v>
@@ -30254,10 +30239,10 @@
         <v>1969.35</v>
       </c>
       <c r="C1011">
-        <v>1983.876199333298</v>
+        <v>1954.823800666702</v>
       </c>
       <c r="D1011">
-        <v>1940.297601333403</v>
+        <v>1998.402398666597</v>
       </c>
       <c r="E1011" t="s">
         <v>1101</v>
@@ -30280,10 +30265,10 @@
         <v>1984.37</v>
       </c>
       <c r="C1012">
-        <v>1999.00698894103</v>
+        <v>1969.35</v>
       </c>
       <c r="D1012">
-        <v>1955.09602211794</v>
+        <v>2014.41</v>
       </c>
       <c r="E1012" t="s">
         <v>1101</v>
@@ -30306,10 +30291,10 @@
         <v>2020.58</v>
       </c>
       <c r="C1013">
-        <v>2035.484078934103</v>
+        <v>1969.35</v>
       </c>
       <c r="D1013">
-        <v>1990.771842131794</v>
+        <v>2123.04</v>
       </c>
       <c r="E1013" t="s">
         <v>1101</v>
@@ -30332,10 +30317,10 @@
         <v>2020.68</v>
       </c>
       <c r="C1014">
-        <v>2035.584816548003</v>
+        <v>2005.775183451997</v>
       </c>
       <c r="D1014">
-        <v>1990.870366903994</v>
+        <v>2050.489633096005</v>
       </c>
       <c r="E1014" t="s">
         <v>1101</v>
@@ -30358,10 +30343,10 @@
         <v>2007.22</v>
       </c>
       <c r="C1015">
-        <v>2020.68</v>
+        <v>1969.35</v>
       </c>
       <c r="D1015">
-        <v>1980.3</v>
+        <v>2082.96</v>
       </c>
       <c r="E1015" t="s">
         <v>1101</v>
@@ -30384,10 +30369,10 @@
         <v>1991.17</v>
       </c>
       <c r="C1016">
-        <v>2005.857146686208</v>
+        <v>1976.482853313792</v>
       </c>
       <c r="D1016">
-        <v>1961.795706627584</v>
+        <v>2020.544293372416</v>
       </c>
       <c r="E1016" t="s">
         <v>1101</v>
@@ -30410,10 +30395,10 @@
         <v>2003.5</v>
       </c>
       <c r="C1017">
-        <v>2020.68</v>
+        <v>1991.17</v>
       </c>
       <c r="D1017">
-        <v>1969.14</v>
+        <v>2028.16</v>
       </c>
       <c r="E1017" t="s">
         <v>1101</v>
@@ -30436,10 +30421,10 @@
         <v>2014.85</v>
       </c>
       <c r="C1018">
-        <v>2020.68</v>
+        <v>1991.17</v>
       </c>
       <c r="D1018">
-        <v>2003.19</v>
+        <v>2062.21</v>
       </c>
       <c r="E1018" t="s">
         <v>1101</v>
@@ -30462,10 +30447,10 @@
         <v>2040.09</v>
       </c>
       <c r="C1019">
-        <v>2055.13798740593</v>
+        <v>2025.04201259407</v>
       </c>
       <c r="D1019">
-        <v>2009.99402518814</v>
+        <v>2070.18597481186</v>
       </c>
       <c r="E1019" t="s">
         <v>1101</v>
@@ -30488,10 +30473,10 @@
         <v>2004.25</v>
       </c>
       <c r="C1020">
-        <v>2040.09</v>
+        <v>1991.17</v>
       </c>
       <c r="D1020">
-        <v>1932.57</v>
+        <v>2030.41</v>
       </c>
       <c r="E1020" t="s">
         <v>1101</v>
@@ -30514,10 +30499,10 @@
         <v>1995.08</v>
       </c>
       <c r="C1021">
-        <v>2009.795987389685</v>
+        <v>1980.364012610315</v>
       </c>
       <c r="D1021">
-        <v>1965.648025220629</v>
+        <v>2024.511974779371</v>
       </c>
       <c r="E1021" t="s">
         <v>1101</v>
@@ -30540,10 +30525,10 @@
         <v>2005.23</v>
       </c>
       <c r="C1022">
-        <v>2020.020855200503</v>
+        <v>1990.439144799497</v>
       </c>
       <c r="D1022">
-        <v>1975.648289598995</v>
+        <v>2034.811710401005</v>
       </c>
       <c r="E1022" t="s">
         <v>1101</v>
@@ -30572,16 +30557,16 @@
         <v>1965.244073654607</v>
       </c>
       <c r="E1023" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="F1023" t="s">
-        <v>1103</v>
+        <v>1038</v>
       </c>
       <c r="G1023" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="H1023" t="s">
-        <v>1103</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="1024" spans="1:8">
@@ -30852,22 +30837,22 @@
         <v>2050.14</v>
       </c>
       <c r="C1034">
-        <v>2065.262117602847</v>
+        <v>2035.017882397152</v>
       </c>
       <c r="D1034">
-        <v>2019.895764794305</v>
+        <v>2080.384235205695</v>
       </c>
       <c r="E1034" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F1034" t="s">
-        <v>1103</v>
+        <v>1041</v>
       </c>
       <c r="G1034" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="H1034" t="s">
-        <v>1103</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="1035" spans="1:8">
@@ -30884,16 +30869,16 @@
         <v>1986.840703720988</v>
       </c>
       <c r="E1035" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="F1035" t="s">
-        <v>1103</v>
+        <v>1043</v>
       </c>
       <c r="G1035" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="H1035" t="s">
-        <v>1103</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="1036" spans="1:8">
@@ -31216,22 +31201,22 @@
         <v>1957.23</v>
       </c>
       <c r="C1048">
-        <v>1942.793199471343</v>
+        <v>1974.91</v>
       </c>
       <c r="D1048">
-        <v>1986.103601057315</v>
+        <v>1921.87</v>
       </c>
       <c r="E1048" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="F1048" t="s">
-        <v>1055</v>
+        <v>1103</v>
       </c>
       <c r="G1048" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="H1048" t="s">
-        <v>1201</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="1049" spans="1:8">
@@ -31242,10 +31227,10 @@
         <v>1940.72</v>
       </c>
       <c r="C1049">
-        <v>1926.404979526179</v>
+        <v>1955.035020473821</v>
       </c>
       <c r="D1049">
-        <v>1969.350040947641</v>
+        <v>1912.089959052359</v>
       </c>
       <c r="E1049" t="s">
         <v>1101</v>
@@ -31268,10 +31253,10 @@
         <v>1946.8</v>
       </c>
       <c r="C1050">
-        <v>1932.440132601079</v>
+        <v>1961.159867398921</v>
       </c>
       <c r="D1050">
-        <v>1975.519734797842</v>
+        <v>1918.080265202158</v>
       </c>
       <c r="E1050" t="s">
         <v>1101</v>
@@ -31294,10 +31279,10 @@
         <v>1942.96</v>
       </c>
       <c r="C1051">
-        <v>1928.628456974827</v>
+        <v>1957.291543025173</v>
       </c>
       <c r="D1051">
-        <v>1971.623086050347</v>
+        <v>1914.296913949653</v>
       </c>
       <c r="E1051" t="s">
         <v>1101</v>
@@ -31320,10 +31305,10 @@
         <v>1959.33</v>
       </c>
       <c r="C1052">
-        <v>1942.96</v>
+        <v>1973.78229042055</v>
       </c>
       <c r="D1052">
-        <v>1992.07</v>
+        <v>1930.425419158899</v>
       </c>
       <c r="E1052" t="s">
         <v>1101</v>
@@ -31352,16 +31337,16 @@
         <v>2002</v>
       </c>
       <c r="E1053" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F1053" t="s">
-        <v>1103</v>
+        <v>1064</v>
       </c>
       <c r="G1053" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="H1053" t="s">
-        <v>1103</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="1054" spans="1:8">
@@ -31840,22 +31825,22 @@
         <v>1913.57</v>
       </c>
       <c r="C1072">
-        <v>1899.455241699942</v>
+        <v>1923.09</v>
       </c>
       <c r="D1072">
-        <v>1941.799516600116</v>
+        <v>1894.53</v>
       </c>
       <c r="E1072" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="F1072" t="s">
-        <v>1103</v>
+        <v>1083</v>
       </c>
       <c r="G1072" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="H1072" t="s">
-        <v>1103</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="1073" spans="1:8">
@@ -31866,10 +31851,10 @@
         <v>1907.3</v>
       </c>
       <c r="C1073">
-        <v>1893.231490091452</v>
+        <v>1921.368509908548</v>
       </c>
       <c r="D1073">
-        <v>1935.437019817097</v>
+        <v>1879.162980182903</v>
       </c>
       <c r="E1073" t="s">
         <v>1101</v>
@@ -31898,16 +31883,16 @@
         <v>1910.06</v>
       </c>
       <c r="E1074" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F1074" t="s">
-        <v>1103</v>
+        <v>1081</v>
       </c>
       <c r="G1074" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="H1074" t="s">
-        <v>1103</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="1075" spans="1:8">
@@ -32048,22 +32033,22 @@
         <v>1925.31</v>
       </c>
       <c r="C1080">
-        <v>1939.51135417188</v>
+        <v>1911.10864582812</v>
       </c>
       <c r="D1080">
-        <v>1896.907291656239</v>
+        <v>1953.712708343761</v>
       </c>
       <c r="E1080" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F1080" t="s">
-        <v>1089</v>
+        <v>1103</v>
       </c>
       <c r="G1080" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="H1080" t="s">
-        <v>1202</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="1081" spans="1:8">
@@ -32080,16 +32065,16 @@
         <v>1896.838324315699</v>
       </c>
       <c r="E1081" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="F1081" t="s">
-        <v>1103</v>
+        <v>1089</v>
       </c>
       <c r="G1081" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="H1081" t="s">
-        <v>1103</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="1082" spans="1:8">
@@ -32100,22 +32085,22 @@
         <v>1932.16</v>
       </c>
       <c r="C1082">
-        <v>1946.411880724008</v>
+        <v>1925.24</v>
       </c>
       <c r="D1082">
-        <v>1903.656238551984</v>
+        <v>1946</v>
       </c>
       <c r="E1082" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F1082" t="s">
-        <v>1103</v>
+        <v>1089</v>
       </c>
       <c r="G1082" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="H1082" t="s">
-        <v>1103</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="1083" spans="1:8">
@@ -32126,10 +32111,10 @@
         <v>1957.3</v>
       </c>
       <c r="C1083">
-        <v>1971.737316858387</v>
+        <v>1925.24</v>
       </c>
       <c r="D1083">
-        <v>1928.425366283225</v>
+        <v>2021.42</v>
       </c>
       <c r="E1083" t="s">
         <v>1101</v>
@@ -32152,10 +32137,10 @@
         <v>1960.34</v>
       </c>
       <c r="C1084">
-        <v>1974.799740320937</v>
+        <v>1945.880259679063</v>
       </c>
       <c r="D1084">
-        <v>1931.420519358125</v>
+        <v>1989.259480641874</v>
       </c>
       <c r="E1084" t="s">
         <v>1101</v>
@@ -32178,10 +32163,10 @@
         <v>1955.35</v>
       </c>
       <c r="C1085">
-        <v>1960.34</v>
+        <v>1925.24</v>
       </c>
       <c r="D1085">
-        <v>1945.37</v>
+        <v>2015.57</v>
       </c>
       <c r="E1085" t="s">
         <v>1101</v>
@@ -32204,10 +32189,10 @@
         <v>1954.88</v>
       </c>
       <c r="C1086">
-        <v>1969.299466602015</v>
+        <v>1940.460533397985</v>
       </c>
       <c r="D1086">
-        <v>1926.04106679597</v>
+        <v>1983.71893320403</v>
       </c>
       <c r="E1086" t="s">
         <v>1101</v>
@@ -32230,10 +32215,10 @@
         <v>1978.77</v>
       </c>
       <c r="C1087">
-        <v>1993.365682562648</v>
+        <v>1964.174317437352</v>
       </c>
       <c r="D1087">
-        <v>1949.578634874704</v>
+        <v>2007.961365125296</v>
       </c>
       <c r="E1087" t="s">
         <v>1101</v>
@@ -32256,10 +32241,10 @@
         <v>1977.04</v>
       </c>
       <c r="C1088">
-        <v>1978.77</v>
+        <v>1954.88</v>
       </c>
       <c r="D1088">
-        <v>1973.58</v>
+        <v>2021.36</v>
       </c>
       <c r="E1088" t="s">
         <v>1101</v>
@@ -32282,10 +32267,10 @@
         <v>1969.46</v>
       </c>
       <c r="C1089">
-        <v>1978.77</v>
+        <v>1954.88</v>
       </c>
       <c r="D1089">
-        <v>1950.84</v>
+        <v>1998.62</v>
       </c>
       <c r="E1089" t="s">
         <v>1101</v>
@@ -32308,10 +32293,10 @@
         <v>1961.78</v>
       </c>
       <c r="C1090">
-        <v>1978.77</v>
+        <v>1954.88</v>
       </c>
       <c r="D1090">
-        <v>1927.8</v>
+        <v>1975.58</v>
       </c>
       <c r="E1090" t="s">
         <v>1101</v>
@@ -32334,10 +32319,10 @@
         <v>1954.78</v>
       </c>
       <c r="C1091">
-        <v>1969.198728988115</v>
+        <v>1940.361271011885</v>
       </c>
       <c r="D1091">
-        <v>1925.942542023769</v>
+        <v>1983.617457976231</v>
       </c>
       <c r="E1091" t="s">
         <v>1101</v>
@@ -32360,10 +32345,10 @@
         <v>1964.87</v>
       </c>
       <c r="C1092">
-        <v>1978.77</v>
+        <v>1954.78</v>
       </c>
       <c r="D1092">
-        <v>1937.07</v>
+        <v>1985.05</v>
       </c>
       <c r="E1092" t="s">
         <v>1101</v>
@@ -32386,10 +32371,10 @@
         <v>1971.81</v>
       </c>
       <c r="C1093">
-        <v>1978.77</v>
+        <v>1954.78</v>
       </c>
       <c r="D1093">
-        <v>1957.89</v>
+        <v>2005.87</v>
       </c>
       <c r="E1093" t="s">
         <v>1101</v>
